--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947E6A9-5443-4451-854B-E6D7E99113B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A0F53C-99DB-4F46-B4A4-98899BF17857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentSpotTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,14 @@
   </si>
   <si>
     <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +423,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0E+00"/>
+    <numFmt numFmtId="176" formatCode="0E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -580,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +658,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,7 +676,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,12 +1016,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1104,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="23">
         <v>1E+108</v>
       </c>
       <c r="I2">
@@ -1137,7 +1148,7 @@
         <f>G2</f>
         <v>1</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="23">
         <v>1E+110</v>
       </c>
       <c r="I3">
@@ -1166,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B59" si="0">B3</f>
+        <f t="shared" ref="B4:B61" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1182,29 +1193,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G59" si="1">G3</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="28">
+        <f t="shared" ref="G4:G61" si="1">G3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I59" si="2">I3</f>
+        <f t="shared" ref="I4:I61" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J59" si="3">J3</f>
+        <f t="shared" ref="J4:J61" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K59" si="4">K3</f>
+        <f t="shared" ref="K4:K61" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M59" si="5">M3+200</f>
+        <f t="shared" ref="M4:M61" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -1233,7 +1244,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="23">
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="I5">
@@ -1281,7 +1292,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="23">
         <v>1E+116</v>
       </c>
       <c r="I6">
@@ -1329,7 +1340,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="I7">
@@ -1377,7 +1388,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="23">
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="I8">
@@ -1425,7 +1436,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="23">
         <v>1E+122</v>
       </c>
       <c r="I9">
@@ -1473,7 +1484,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="23">
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="I10">
@@ -1521,7 +1532,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="23">
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="I11">
@@ -1569,7 +1580,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="23">
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="I12">
@@ -1617,7 +1628,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="23">
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="I13">
@@ -3802,9 +3813,103 @@
         <v>13400</v>
       </c>
     </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C60">
+        <v>9065</v>
+      </c>
+      <c r="D60">
+        <v>50500</v>
+      </c>
+      <c r="E60">
+        <v>9065</v>
+      </c>
+      <c r="F60">
+        <v>25250</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="29">
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="5"/>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C61">
+        <v>9065</v>
+      </c>
+      <c r="D61">
+        <v>52000</v>
+      </c>
+      <c r="E61">
+        <v>9065</v>
+      </c>
+      <c r="F61">
+        <v>26000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="29">
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="5"/>
+        <v>13800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E59 G13:G59 I13:M59">
+  <conditionalFormatting sqref="G2:N12 A2:E61 G13:G61 I13:M61">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3818,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G9:G66"/>
+    <sheetView topLeftCell="B62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3843,10 +3948,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
@@ -3861,8 +3966,8 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
@@ -3882,10 +3987,10 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="E6" s="10" t="s">
         <v>51</v>
       </c>
@@ -7048,8 +7153,20 @@
         <v>54</v>
       </c>
       <c r="N63" s="21"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
+      <c r="O63" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" s="15">
+        <v>224</v>
+      </c>
+      <c r="Q63" s="16">
+        <f t="shared" ref="Q63:Q64" si="38">POWER(10,P63)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="R63" s="16" t="str">
+        <f t="shared" ref="R63:R64" si="39">RIGHT(Q63,P63)</f>
+        <v>1E+224</v>
+      </c>
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
@@ -7096,8 +7213,20 @@
         <v>55</v>
       </c>
       <c r="N64" s="21"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
+      <c r="O64" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" s="15">
+        <v>228</v>
+      </c>
+      <c r="Q64" s="16">
+        <f t="shared" si="38"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="R64" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>1E+228</v>
+      </c>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
@@ -7210,23 +7339,23 @@
       </c>
       <c r="F67" s="16" t="str">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="G67" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1혈</v>
+      </c>
+      <c r="G67" s="16">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999997E+223</v>
       </c>
       <c r="H67" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I67" s="15" cm="1">
+      <c r="I67" s="15" t="str" cm="1">
         <f t="array" ref="I67">IF(AND(H66&gt;=100,H67&lt;2),INDEX(O:O,MATCH(I66,O:O,0)+1,0),I66)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="15" t="e">
+        <v>혈</v>
+      </c>
+      <c r="J67" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
+        <v>1E+224</v>
       </c>
       <c r="K67" s="21">
         <f t="shared" si="2"/>
@@ -7247,23 +7376,23 @@
       </c>
       <c r="F68" s="16" t="str">
         <f>H68&amp;I68</f>
-        <v>1000</v>
-      </c>
-      <c r="G68" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>100혈</v>
+      </c>
+      <c r="G68" s="16">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999996E+225</v>
       </c>
       <c r="H68" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I68" s="15" cm="1">
+      <c r="I68" s="15" t="str" cm="1">
         <f t="array" ref="I68">IF(AND(H67&gt;=100,H68&lt;2),INDEX(O:O,MATCH(I67,O:O,0)+1,0),I67)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="15" t="e">
+        <v>혈</v>
+      </c>
+      <c r="J68" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
+        <v>1E+224</v>
       </c>
       <c r="K68" s="21">
         <f t="shared" si="2"/>
@@ -7282,25 +7411,25 @@
       <c r="E69" s="15">
         <v>60</v>
       </c>
-      <c r="F69" s="16" t="e">
-        <f t="shared" ref="F69" si="38">H69&amp;I69</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G69" s="16" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="F69" s="16" t="str">
+        <f t="shared" ref="F69" si="40">H69&amp;I69</f>
+        <v>1연</v>
+      </c>
+      <c r="G69" s="16">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999992E+227</v>
       </c>
       <c r="H69" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I69" s="15" t="e" cm="1">
+      <c r="I69" s="15" t="str" cm="1">
         <f t="array" ref="I69">IF(AND(H68&gt;=100,H69&lt;2),INDEX(O:O,MATCH(I68,O:O,0)+1,0),I68)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="15" t="e">
+        <v>연</v>
+      </c>
+      <c r="J69" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
+        <v>1E+228</v>
       </c>
       <c r="K69" s="21">
         <f t="shared" si="2"/>
@@ -7319,25 +7448,25 @@
       <c r="E70" s="15">
         <v>61</v>
       </c>
-      <c r="F70" s="16" t="e">
+      <c r="F70" s="16" t="str">
         <f>H70&amp;I70</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G70" s="16" t="e">
-        <f t="shared" ref="G70:G72" si="39">H70*J70</f>
-        <v>#N/A</v>
+        <v>100연</v>
+      </c>
+      <c r="G70" s="16">
+        <f t="shared" ref="G70:G72" si="41">H70*J70</f>
+        <v>9.9999999999999988E+229</v>
       </c>
       <c r="H70" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I70" s="15" t="e" cm="1">
+      <c r="I70" s="15" t="str" cm="1">
         <f t="array" ref="I70">IF(AND(H69&gt;=100,H70&lt;2),INDEX(O:O,MATCH(I69,O:O,0)+1,0),I69)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="15" t="e">
-        <f t="shared" ref="J70:J72" si="40">VLOOKUP(I70,O:R,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>연</v>
+      </c>
+      <c r="J70" s="15" t="str">
+        <f t="shared" ref="J70:J72" si="42">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <v>1E+228</v>
       </c>
       <c r="K70" s="21">
         <f t="shared" si="2"/>
@@ -7352,24 +7481,24 @@
       <c r="E71" s="15">
         <v>62</v>
       </c>
-      <c r="F71" s="16" t="e">
-        <f t="shared" ref="F71:F72" si="41">H71&amp;I71</f>
-        <v>#N/A</v>
+      <c r="F71" s="16" t="str">
+        <f t="shared" ref="F71:F72" si="43">H71&amp;I71</f>
+        <v>10</v>
       </c>
       <c r="G71" s="16" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
       <c r="H71" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I71" s="15" t="e" cm="1">
+      <c r="I71" s="15" cm="1">
         <f t="array" ref="I71">IF(AND(H70&gt;=100,H71&lt;2),INDEX(O:O,MATCH(I70,O:O,0)+1,0),I70)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J71" s="15" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="K71" s="21">
@@ -7385,24 +7514,24 @@
       <c r="E72" s="15">
         <v>63</v>
       </c>
-      <c r="F72" s="16" t="e">
+      <c r="F72" s="16" t="str">
+        <f t="shared" si="43"/>
+        <v>1000</v>
+      </c>
+      <c r="G72" s="16" t="e">
         <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
-      <c r="G72" s="16" t="e">
-        <f t="shared" si="39"/>
-        <v>#N/A</v>
-      </c>
       <c r="H72" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I72" s="15" t="e" cm="1">
+      <c r="I72" s="15" cm="1">
         <f t="array" ref="I72">IF(AND(H71&gt;=100,H72&lt;2),INDEX(O:O,MATCH(I71,O:O,0)+1,0),I71)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J72" s="15" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>#N/A</v>
       </c>
       <c r="K72" s="21">
@@ -7419,11 +7548,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="16" t="e">
-        <f t="shared" ref="F73:F75" si="42">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="44">H73&amp;I73</f>
         <v>#N/A</v>
       </c>
       <c r="G73" s="16" t="e">
-        <f t="shared" ref="G73:G75" si="43">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="45">H73*J73</f>
         <v>#N/A</v>
       </c>
       <c r="H73" s="16">
@@ -7435,7 +7564,7 @@
         <v>#N/A</v>
       </c>
       <c r="J73" s="15" t="e">
-        <f t="shared" ref="J73:J75" si="44">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="46">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K73" s="21">
@@ -7452,11 +7581,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="G74" s="16" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="H74" s="16">
@@ -7468,11 +7597,11 @@
         <v>#N/A</v>
       </c>
       <c r="J74" s="15" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="K74" s="21">
-        <f t="shared" ref="K74:K94" si="45">L74*2</f>
+        <f t="shared" ref="K74:K94" si="47">L74*2</f>
         <v>61000</v>
       </c>
       <c r="L74" s="21">
@@ -7485,11 +7614,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="16" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#N/A</v>
       </c>
       <c r="G75" s="16" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>#N/A</v>
       </c>
       <c r="H75" s="16">
@@ -7501,15 +7630,15 @@
         <v>#N/A</v>
       </c>
       <c r="J75" s="15" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>62500</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" ref="L75:L94" si="46">L74+250+QUOTIENT(E75,25)*250</f>
+        <f t="shared" ref="L75:L94" si="48">L74+250+QUOTIENT(E75,25)*250</f>
         <v>31250</v>
       </c>
     </row>
@@ -7518,11 +7647,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="16" t="e">
-        <f t="shared" ref="F76:F80" si="47">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="49">H76&amp;I76</f>
         <v>#N/A</v>
       </c>
       <c r="G76" s="16" t="e">
-        <f t="shared" ref="G76:G80" si="48">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="50">H76*J76</f>
         <v>#N/A</v>
       </c>
       <c r="H76" s="16">
@@ -7534,15 +7663,15 @@
         <v>#N/A</v>
       </c>
       <c r="J76" s="15" t="e">
-        <f t="shared" ref="J76:J80" si="49">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="51">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>64000</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32000</v>
       </c>
     </row>
@@ -7551,11 +7680,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="16" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="G77" s="16" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="H77" s="16">
@@ -7567,15 +7696,15 @@
         <v>#N/A</v>
       </c>
       <c r="J77" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="K77" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>65500</v>
       </c>
       <c r="L77" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32750</v>
       </c>
     </row>
@@ -7584,11 +7713,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="16" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="G78" s="16" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="H78" s="16">
@@ -7600,15 +7729,15 @@
         <v>#N/A</v>
       </c>
       <c r="J78" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="K78" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>67000</v>
       </c>
       <c r="L78" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33500</v>
       </c>
     </row>
@@ -7617,11 +7746,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="16" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="G79" s="16" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="H79" s="16">
@@ -7633,15 +7762,15 @@
         <v>#N/A</v>
       </c>
       <c r="J79" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="K79" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>68500</v>
       </c>
       <c r="L79" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>34250</v>
       </c>
     </row>
@@ -7650,11 +7779,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="16" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>#N/A</v>
       </c>
       <c r="G80" s="16" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>#N/A</v>
       </c>
       <c r="H80" s="16">
@@ -7666,15 +7795,15 @@
         <v>#N/A</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="K80" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>70000</v>
       </c>
       <c r="L80" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>35000</v>
       </c>
     </row>
@@ -7683,11 +7812,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="16" t="e">
-        <f t="shared" ref="F81:F82" si="50">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="52">H81&amp;I81</f>
         <v>#N/A</v>
       </c>
       <c r="G81" s="16" t="e">
-        <f t="shared" ref="G81:G82" si="51">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="53">H81*J81</f>
         <v>#N/A</v>
       </c>
       <c r="H81" s="16">
@@ -7699,15 +7828,15 @@
         <v>#N/A</v>
       </c>
       <c r="J81" s="15" t="e">
-        <f t="shared" ref="J81:J82" si="52">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="54">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>71500</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>35750</v>
       </c>
     </row>
@@ -7716,11 +7845,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="16" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="G82" s="16" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
       <c r="H82" s="16">
@@ -7732,15 +7861,15 @@
         <v>#N/A</v>
       </c>
       <c r="J82" s="15" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>73000</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>36500</v>
       </c>
     </row>
@@ -7749,11 +7878,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="16" t="e">
-        <f t="shared" ref="F83:F86" si="53">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="55">H83&amp;I83</f>
         <v>#N/A</v>
       </c>
       <c r="G83" s="16" t="e">
-        <f t="shared" ref="G83:G86" si="54">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="56">H83*J83</f>
         <v>#N/A</v>
       </c>
       <c r="H83" s="16">
@@ -7765,15 +7894,15 @@
         <v>#N/A</v>
       </c>
       <c r="J83" s="15" t="e">
-        <f t="shared" ref="J83:J86" si="55">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="57">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>74500</v>
       </c>
       <c r="L83" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>37250</v>
       </c>
     </row>
@@ -7782,11 +7911,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="16" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#N/A</v>
       </c>
       <c r="G84" s="16" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="H84" s="16">
@@ -7798,15 +7927,15 @@
         <v>#N/A</v>
       </c>
       <c r="J84" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>76500</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>38250</v>
       </c>
     </row>
@@ -7815,11 +7944,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="16" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#N/A</v>
       </c>
       <c r="G85" s="16" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="H85" s="16">
@@ -7831,15 +7960,15 @@
         <v>#N/A</v>
       </c>
       <c r="J85" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="K85" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>78500</v>
       </c>
       <c r="L85" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>39250</v>
       </c>
     </row>
@@ -7848,11 +7977,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="16" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#N/A</v>
       </c>
       <c r="G86" s="16" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="H86" s="16">
@@ -7864,15 +7993,15 @@
         <v>#N/A</v>
       </c>
       <c r="J86" s="15" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>80500</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>40250</v>
       </c>
     </row>
@@ -7881,11 +8010,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="16" t="e">
-        <f t="shared" ref="F87:F90" si="56">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="58">H87&amp;I87</f>
         <v>#N/A</v>
       </c>
       <c r="G87" s="16" t="e">
-        <f t="shared" ref="G87:G90" si="57">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="59">H87*J87</f>
         <v>#N/A</v>
       </c>
       <c r="H87" s="16">
@@ -7897,15 +8026,15 @@
         <v>#N/A</v>
       </c>
       <c r="J87" s="15" t="e">
-        <f t="shared" ref="J87:J90" si="58">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="60">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>82500</v>
       </c>
       <c r="L87" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>41250</v>
       </c>
     </row>
@@ -7914,11 +8043,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="G88" s="16" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="H88" s="16">
@@ -7930,15 +8059,15 @@
         <v>#N/A</v>
       </c>
       <c r="J88" s="15" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="K88" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>84500</v>
       </c>
       <c r="L88" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>42250</v>
       </c>
     </row>
@@ -7947,11 +8076,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="G89" s="16" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="H89" s="16">
@@ -7963,15 +8092,15 @@
         <v>#N/A</v>
       </c>
       <c r="J89" s="15" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="K89" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>86500</v>
       </c>
       <c r="L89" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>43250</v>
       </c>
     </row>
@@ -7980,11 +8109,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="G90" s="16" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="H90" s="16">
@@ -7996,15 +8125,15 @@
         <v>#N/A</v>
       </c>
       <c r="J90" s="15" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="K90" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>88500</v>
       </c>
       <c r="L90" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>44250</v>
       </c>
     </row>
@@ -8013,11 +8142,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="16" t="e">
-        <f t="shared" ref="F91:F94" si="59">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="61">H91&amp;I91</f>
         <v>#N/A</v>
       </c>
       <c r="G91" s="16" t="e">
-        <f t="shared" ref="G91:G94" si="60">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="62">H91*J91</f>
         <v>#N/A</v>
       </c>
       <c r="H91" s="16">
@@ -8029,15 +8158,15 @@
         <v>#N/A</v>
       </c>
       <c r="J91" s="15" t="e">
-        <f t="shared" ref="J91:J94" si="61">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="63">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K91" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>90500</v>
       </c>
       <c r="L91" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>45250</v>
       </c>
     </row>
@@ -8046,11 +8175,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="16" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="G92" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="H92" s="16">
@@ -8062,15 +8191,15 @@
         <v>#N/A</v>
       </c>
       <c r="J92" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>92500</v>
       </c>
       <c r="L92" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>46250</v>
       </c>
     </row>
@@ -8079,11 +8208,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="16" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="G93" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="H93" s="16">
@@ -8095,15 +8224,15 @@
         <v>#N/A</v>
       </c>
       <c r="J93" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="K93" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>94500</v>
       </c>
       <c r="L93" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>47250</v>
       </c>
     </row>
@@ -8112,11 +8241,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="16" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="G94" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="H94" s="16">
@@ -8128,15 +8257,15 @@
         <v>#N/A</v>
       </c>
       <c r="J94" s="15" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="K94" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>96500</v>
       </c>
       <c r="L94" s="21">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>48250</v>
       </c>
     </row>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A0F53C-99DB-4F46-B4A4-98899BF17857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7421704-DE18-402B-97A2-E3F4F18EF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,14 @@
   </si>
   <si>
     <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,6 +669,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,9 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,12 +1024,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B61" si="0">B3</f>
+        <f t="shared" ref="B4:B63" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1193,29 +1201,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G61" si="1">G3</f>
+        <f t="shared" ref="G4:H63" si="1">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I61" si="2">I3</f>
+        <f t="shared" ref="I4:I63" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J61" si="3">J3</f>
+        <f t="shared" ref="J4:J63" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K61" si="4">K3</f>
+        <f t="shared" ref="K4:K63" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M61" si="5">M3+200</f>
+        <f t="shared" ref="M4:M63" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -3837,7 +3845,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H60" s="29">
+      <c r="H60" s="24">
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="I60">
@@ -3884,7 +3892,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H61" s="29">
+      <c r="H61" s="24">
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="I61">
@@ -3907,9 +3915,105 @@
         <v>13800</v>
       </c>
     </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C62">
+        <v>9065</v>
+      </c>
+      <c r="D62">
+        <v>53500</v>
+      </c>
+      <c r="E62">
+        <v>9065</v>
+      </c>
+      <c r="F62">
+        <v>26750</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="24">
+        <f>H61*100</f>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="5"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C63">
+        <v>9065</v>
+      </c>
+      <c r="D63">
+        <v>55000</v>
+      </c>
+      <c r="E63">
+        <v>9065</v>
+      </c>
+      <c r="F63">
+        <v>27500</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H63" s="24">
+        <f>H62*100</f>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>57</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="5"/>
+        <v>14200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E61 G13:G61 I13:M61">
+  <conditionalFormatting sqref="G2:N12 A2:E63 G13:G63 I13:M63 H62:H63">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3924,7 +4028,7 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView topLeftCell="B62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3948,10 +4052,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
@@ -3966,8 +4070,8 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
@@ -3987,10 +4091,10 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="E6" s="10" t="s">
         <v>51</v>
       </c>
@@ -7273,8 +7377,20 @@
         <v>56</v>
       </c>
       <c r="N65" s="21"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
+      <c r="O65" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" s="15">
+        <v>232</v>
+      </c>
+      <c r="Q65" s="16">
+        <f t="shared" ref="Q65:Q66" si="40">POWER(10,P65)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="R65" s="16" t="str">
+        <f t="shared" ref="R65:R66" si="41">RIGHT(Q65,P65)</f>
+        <v>1E+232</v>
+      </c>
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
       <c r="U65" s="10"/>
@@ -7321,8 +7437,20 @@
         <v>57</v>
       </c>
       <c r="N66" s="21"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
+      <c r="O66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" s="15">
+        <v>236</v>
+      </c>
+      <c r="Q66" s="16">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="R66" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+236</v>
+      </c>
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
@@ -7412,7 +7540,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="16" t="str">
-        <f t="shared" ref="F69" si="40">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="42">H69&amp;I69</f>
         <v>1연</v>
       </c>
       <c r="G69" s="16">
@@ -7453,7 +7581,7 @@
         <v>100연</v>
       </c>
       <c r="G70" s="16">
-        <f t="shared" ref="G70:G72" si="41">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="43">H70*J70</f>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H70" s="16">
@@ -7465,7 +7593,7 @@
         <v>연</v>
       </c>
       <c r="J70" s="15" t="str">
-        <f t="shared" ref="J70:J72" si="42">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="44">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K70" s="21">
@@ -7482,24 +7610,24 @@
         <v>62</v>
       </c>
       <c r="F71" s="16" t="str">
-        <f t="shared" ref="F71:F72" si="43">H71&amp;I71</f>
-        <v>10</v>
-      </c>
-      <c r="G71" s="16" t="e">
-        <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <f t="shared" ref="F71:F72" si="45">H71&amp;I71</f>
+        <v>1난</v>
+      </c>
+      <c r="G71" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0000000000000001E+232</v>
       </c>
       <c r="H71" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I71" s="15" cm="1">
+      <c r="I71" s="15" t="str" cm="1">
         <f t="array" ref="I71">IF(AND(H70&gt;=100,H71&lt;2),INDEX(O:O,MATCH(I70,O:O,0)+1,0),I70)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="15" t="e">
-        <f t="shared" si="42"/>
-        <v>#N/A</v>
+        <v>난</v>
+      </c>
+      <c r="J71" s="15" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+232</v>
       </c>
       <c r="K71" s="21">
         <f t="shared" si="2"/>
@@ -7515,24 +7643,24 @@
         <v>63</v>
       </c>
       <c r="F72" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>100난</v>
+      </c>
+      <c r="G72" s="16">
         <f t="shared" si="43"/>
-        <v>1000</v>
-      </c>
-      <c r="G72" s="16" t="e">
-        <f t="shared" si="41"/>
-        <v>#N/A</v>
+        <v>1E+234</v>
       </c>
       <c r="H72" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I72" s="15" cm="1">
+      <c r="I72" s="15" t="str" cm="1">
         <f t="array" ref="I72">IF(AND(H71&gt;=100,H72&lt;2),INDEX(O:O,MATCH(I71,O:O,0)+1,0),I71)</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="15" t="e">
-        <f t="shared" si="42"/>
-        <v>#N/A</v>
+        <v>난</v>
+      </c>
+      <c r="J72" s="15" t="str">
+        <f t="shared" si="44"/>
+        <v>1E+232</v>
       </c>
       <c r="K72" s="21">
         <f t="shared" si="2"/>
@@ -7547,25 +7675,25 @@
       <c r="E73" s="15">
         <v>64</v>
       </c>
-      <c r="F73" s="16" t="e">
-        <f t="shared" ref="F73:F75" si="44">H73&amp;I73</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G73" s="16" t="e">
-        <f t="shared" ref="G73:G75" si="45">H73*J73</f>
-        <v>#N/A</v>
+      <c r="F73" s="16" t="str">
+        <f t="shared" ref="F73:F75" si="46">H73&amp;I73</f>
+        <v>1군</v>
+      </c>
+      <c r="G73" s="16">
+        <f t="shared" ref="G73:G75" si="47">H73*J73</f>
+        <v>1.0000000000000001E+236</v>
       </c>
       <c r="H73" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I73" s="15" t="e" cm="1">
+      <c r="I73" s="15" t="str" cm="1">
         <f t="array" ref="I73">IF(AND(H72&gt;=100,H73&lt;2),INDEX(O:O,MATCH(I72,O:O,0)+1,0),I72)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="15" t="e">
-        <f t="shared" ref="J73:J75" si="46">VLOOKUP(I73,O:R,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>군</v>
+      </c>
+      <c r="J73" s="15" t="str">
+        <f t="shared" ref="J73:J75" si="48">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <v>1E+236</v>
       </c>
       <c r="K73" s="21">
         <f t="shared" si="2"/>
@@ -7580,28 +7708,28 @@
       <c r="E74" s="15">
         <v>65</v>
       </c>
-      <c r="F74" s="16" t="e">
-        <f t="shared" si="44"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G74" s="16" t="e">
-        <f t="shared" si="45"/>
-        <v>#N/A</v>
+      <c r="F74" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>100군</v>
+      </c>
+      <c r="G74" s="16">
+        <f t="shared" si="47"/>
+        <v>1E+238</v>
       </c>
       <c r="H74" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I74" s="15" t="e" cm="1">
+      <c r="I74" s="15" t="str" cm="1">
         <f t="array" ref="I74">IF(AND(H73&gt;=100,H74&lt;2),INDEX(O:O,MATCH(I73,O:O,0)+1,0),I73)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="15" t="e">
-        <f t="shared" si="46"/>
-        <v>#N/A</v>
+        <v>군</v>
+      </c>
+      <c r="J74" s="15" t="str">
+        <f t="shared" si="48"/>
+        <v>1E+236</v>
       </c>
       <c r="K74" s="21">
-        <f t="shared" ref="K74:K94" si="47">L74*2</f>
+        <f t="shared" ref="K74:K94" si="49">L74*2</f>
         <v>61000</v>
       </c>
       <c r="L74" s="21">
@@ -7613,32 +7741,32 @@
       <c r="E75" s="15">
         <v>66</v>
       </c>
-      <c r="F75" s="16" t="e">
-        <f t="shared" si="44"/>
+      <c r="F75" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>10</v>
+      </c>
+      <c r="G75" s="16" t="e">
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
-      <c r="G75" s="16" t="e">
-        <f t="shared" si="45"/>
+      <c r="H75" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="15" cm="1">
+        <f t="array" ref="I75">IF(AND(H74&gt;=100,H75&lt;2),INDEX(O:O,MATCH(I74,O:O,0)+1,0),I74)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="15" t="e">
+        <f t="shared" si="48"/>
         <v>#N/A</v>
       </c>
-      <c r="H75" s="16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I75" s="15" t="e" cm="1">
-        <f t="array" ref="I75">IF(AND(H74&gt;=100,H75&lt;2),INDEX(O:O,MATCH(I74,O:O,0)+1,0),I74)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J75" s="15" t="e">
-        <f t="shared" si="46"/>
-        <v>#N/A</v>
-      </c>
       <c r="K75" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>62500</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" ref="L75:L94" si="48">L74+250+QUOTIENT(E75,25)*250</f>
+        <f t="shared" ref="L75:L94" si="50">L74+250+QUOTIENT(E75,25)*250</f>
         <v>31250</v>
       </c>
     </row>
@@ -7646,32 +7774,32 @@
       <c r="E76" s="15">
         <v>67</v>
       </c>
-      <c r="F76" s="16" t="e">
-        <f t="shared" ref="F76:F80" si="49">H76&amp;I76</f>
+      <c r="F76" s="16" t="str">
+        <f t="shared" ref="F76:F80" si="51">H76&amp;I76</f>
+        <v>1000</v>
+      </c>
+      <c r="G76" s="16" t="e">
+        <f t="shared" ref="G76:G80" si="52">H76*J76</f>
         <v>#N/A</v>
       </c>
-      <c r="G76" s="16" t="e">
-        <f t="shared" ref="G76:G80" si="50">H76*J76</f>
+      <c r="H76" s="16">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I76" s="15" cm="1">
+        <f t="array" ref="I76">IF(AND(H75&gt;=100,H76&lt;2),INDEX(O:O,MATCH(I75,O:O,0)+1,0),I75)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="15" t="e">
+        <f t="shared" ref="J76:J80" si="53">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H76" s="16">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I76" s="15" t="e" cm="1">
-        <f t="array" ref="I76">IF(AND(H75&gt;=100,H76&lt;2),INDEX(O:O,MATCH(I75,O:O,0)+1,0),I75)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J76" s="15" t="e">
-        <f t="shared" ref="J76:J80" si="51">VLOOKUP(I76,O:R,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
       <c r="K76" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>64000</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>32000</v>
       </c>
     </row>
@@ -7680,11 +7808,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="16" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="G77" s="16" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="H77" s="16">
@@ -7696,15 +7824,15 @@
         <v>#N/A</v>
       </c>
       <c r="J77" s="15" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
       <c r="K77" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>65500</v>
       </c>
       <c r="L77" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>32750</v>
       </c>
     </row>
@@ -7713,11 +7841,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="16" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="G78" s="16" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="H78" s="16">
@@ -7729,15 +7857,15 @@
         <v>#N/A</v>
       </c>
       <c r="J78" s="15" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
       <c r="K78" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>67000</v>
       </c>
       <c r="L78" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>33500</v>
       </c>
     </row>
@@ -7746,11 +7874,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="16" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="G79" s="16" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="H79" s="16">
@@ -7762,15 +7890,15 @@
         <v>#N/A</v>
       </c>
       <c r="J79" s="15" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
       <c r="K79" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>68500</v>
       </c>
       <c r="L79" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>34250</v>
       </c>
     </row>
@@ -7779,11 +7907,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="16" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#N/A</v>
       </c>
       <c r="G80" s="16" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>#N/A</v>
       </c>
       <c r="H80" s="16">
@@ -7795,15 +7923,15 @@
         <v>#N/A</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>#N/A</v>
       </c>
       <c r="K80" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>70000</v>
       </c>
       <c r="L80" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>35000</v>
       </c>
     </row>
@@ -7812,11 +7940,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="16" t="e">
-        <f t="shared" ref="F81:F82" si="52">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="54">H81&amp;I81</f>
         <v>#N/A</v>
       </c>
       <c r="G81" s="16" t="e">
-        <f t="shared" ref="G81:G82" si="53">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="55">H81*J81</f>
         <v>#N/A</v>
       </c>
       <c r="H81" s="16">
@@ -7828,15 +7956,15 @@
         <v>#N/A</v>
       </c>
       <c r="J81" s="15" t="e">
-        <f t="shared" ref="J81:J82" si="54">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="56">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>71500</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>35750</v>
       </c>
     </row>
@@ -7845,11 +7973,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="16" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>#N/A</v>
       </c>
       <c r="G82" s="16" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>#N/A</v>
       </c>
       <c r="H82" s="16">
@@ -7861,15 +7989,15 @@
         <v>#N/A</v>
       </c>
       <c r="J82" s="15" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>73000</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>36500</v>
       </c>
     </row>
@@ -7878,11 +8006,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="16" t="e">
-        <f t="shared" ref="F83:F86" si="55">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="57">H83&amp;I83</f>
         <v>#N/A</v>
       </c>
       <c r="G83" s="16" t="e">
-        <f t="shared" ref="G83:G86" si="56">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="58">H83*J83</f>
         <v>#N/A</v>
       </c>
       <c r="H83" s="16">
@@ -7894,15 +8022,15 @@
         <v>#N/A</v>
       </c>
       <c r="J83" s="15" t="e">
-        <f t="shared" ref="J83:J86" si="57">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="59">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>74500</v>
       </c>
       <c r="L83" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>37250</v>
       </c>
     </row>
@@ -7911,11 +8039,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="16" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="G84" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="H84" s="16">
@@ -7927,15 +8055,15 @@
         <v>#N/A</v>
       </c>
       <c r="J84" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>76500</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>38250</v>
       </c>
     </row>
@@ -7944,11 +8072,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="16" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="G85" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="H85" s="16">
@@ -7960,15 +8088,15 @@
         <v>#N/A</v>
       </c>
       <c r="J85" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="K85" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>78500</v>
       </c>
       <c r="L85" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>39250</v>
       </c>
     </row>
@@ -7977,11 +8105,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="16" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="G86" s="16" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="H86" s="16">
@@ -7993,15 +8121,15 @@
         <v>#N/A</v>
       </c>
       <c r="J86" s="15" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>80500</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>40250</v>
       </c>
     </row>
@@ -8010,11 +8138,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="16" t="e">
-        <f t="shared" ref="F87:F90" si="58">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="60">H87&amp;I87</f>
         <v>#N/A</v>
       </c>
       <c r="G87" s="16" t="e">
-        <f t="shared" ref="G87:G90" si="59">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="61">H87*J87</f>
         <v>#N/A</v>
       </c>
       <c r="H87" s="16">
@@ -8026,15 +8154,15 @@
         <v>#N/A</v>
       </c>
       <c r="J87" s="15" t="e">
-        <f t="shared" ref="J87:J90" si="60">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="62">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>82500</v>
       </c>
       <c r="L87" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>41250</v>
       </c>
     </row>
@@ -8043,11 +8171,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="16" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="G88" s="16" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="H88" s="16">
@@ -8059,15 +8187,15 @@
         <v>#N/A</v>
       </c>
       <c r="J88" s="15" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="K88" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>84500</v>
       </c>
       <c r="L88" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>42250</v>
       </c>
     </row>
@@ -8076,11 +8204,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="16" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="G89" s="16" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="H89" s="16">
@@ -8092,15 +8220,15 @@
         <v>#N/A</v>
       </c>
       <c r="J89" s="15" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="K89" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>86500</v>
       </c>
       <c r="L89" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>43250</v>
       </c>
     </row>
@@ -8109,11 +8237,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="16" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="G90" s="16" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="H90" s="16">
@@ -8125,15 +8253,15 @@
         <v>#N/A</v>
       </c>
       <c r="J90" s="15" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="K90" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>88500</v>
       </c>
       <c r="L90" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>44250</v>
       </c>
     </row>
@@ -8142,11 +8270,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="16" t="e">
-        <f t="shared" ref="F91:F94" si="61">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="63">H91&amp;I91</f>
         <v>#N/A</v>
       </c>
       <c r="G91" s="16" t="e">
-        <f t="shared" ref="G91:G94" si="62">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="64">H91*J91</f>
         <v>#N/A</v>
       </c>
       <c r="H91" s="16">
@@ -8158,15 +8286,15 @@
         <v>#N/A</v>
       </c>
       <c r="J91" s="15" t="e">
-        <f t="shared" ref="J91:J94" si="63">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="65">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K91" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>90500</v>
       </c>
       <c r="L91" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>45250</v>
       </c>
     </row>
@@ -8175,11 +8303,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="16" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="G92" s="16" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="H92" s="16">
@@ -8191,15 +8319,15 @@
         <v>#N/A</v>
       </c>
       <c r="J92" s="15" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>92500</v>
       </c>
       <c r="L92" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>46250</v>
       </c>
     </row>
@@ -8208,11 +8336,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="16" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="G93" s="16" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="H93" s="16">
@@ -8224,15 +8352,15 @@
         <v>#N/A</v>
       </c>
       <c r="J93" s="15" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="K93" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>94500</v>
       </c>
       <c r="L93" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>47250</v>
       </c>
     </row>
@@ -8241,11 +8369,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="16" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="G94" s="16" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="H94" s="16">
@@ -8257,15 +8385,15 @@
         <v>#N/A</v>
       </c>
       <c r="J94" s="15" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="K94" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>96500</v>
       </c>
       <c r="L94" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48250</v>
       </c>
     </row>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7421704-DE18-402B-97A2-E3F4F18EF061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5075A13-41D4-4A85-A7E1-EEBCA35A26CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1024,12 +1024,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B63" si="0">B3</f>
+        <f t="shared" ref="B4:B65" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1201,29 +1201,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:H63" si="1">G3</f>
+        <f t="shared" ref="G4:G65" si="1">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I63" si="2">I3</f>
+        <f t="shared" ref="I4:I65" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J63" si="3">J3</f>
+        <f t="shared" ref="J4:J65" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K63" si="4">K3</f>
+        <f t="shared" ref="K4:K65" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M63" si="5">M3+200</f>
+        <f t="shared" ref="M4:M65" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -4011,9 +4011,105 @@
         <v>14200</v>
       </c>
     </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C64">
+        <v>9065</v>
+      </c>
+      <c r="D64">
+        <v>56500</v>
+      </c>
+      <c r="E64">
+        <v>9065</v>
+      </c>
+      <c r="F64">
+        <v>28250</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="24">
+        <f>H63*100</f>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C65">
+        <v>9065</v>
+      </c>
+      <c r="D65">
+        <v>58000</v>
+      </c>
+      <c r="E65">
+        <v>9065</v>
+      </c>
+      <c r="F65">
+        <v>29000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="24">
+        <f>H64*100</f>
+        <v>9.9999999999999984E+233</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>57</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="5"/>
+        <v>14600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 A2:E63 G13:G63 I13:M63 H62:H63">
+  <conditionalFormatting sqref="G2:N12 H62:H63 G13:G63 I13:M63 A2:E65 G64:M65">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4028,7 +4124,7 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView topLeftCell="B62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P67" sqref="P67"/>
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5075A13-41D4-4A85-A7E1-EEBCA35A26CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20C2617-B195-495A-B28D-339C61C02C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,14 @@
   </si>
   <si>
     <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,12 +1032,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1185,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B65" si="0">B3</f>
+        <f t="shared" ref="B4:B67" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1201,29 +1209,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G65" si="1">G3</f>
+        <f t="shared" ref="G4:G67" si="1">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I65" si="2">I3</f>
+        <f t="shared" ref="I4:I67" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J65" si="3">J3</f>
+        <f t="shared" ref="J4:J67" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K65" si="4">K3</f>
+        <f t="shared" ref="K4:K67" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M65" si="5">M3+200</f>
+        <f t="shared" ref="M4:M67" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -4107,9 +4115,105 @@
         <v>14600</v>
       </c>
     </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C66">
+        <v>9065</v>
+      </c>
+      <c r="D66">
+        <v>59500</v>
+      </c>
+      <c r="E66">
+        <v>9065</v>
+      </c>
+      <c r="F66">
+        <v>29750</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="24">
+        <f>H65*100</f>
+        <v>9.9999999999999983E+235</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="5"/>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C67">
+        <v>9065</v>
+      </c>
+      <c r="D67">
+        <v>61000</v>
+      </c>
+      <c r="E67">
+        <v>9065</v>
+      </c>
+      <c r="F67">
+        <v>30500</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="24">
+        <f>H66*100</f>
+        <v>9.9999999999999976E+237</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>57</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 H62:H63 G13:G63 I13:M63 A2:E65 G64:M65">
+  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E67 G64:M67">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4124,7 +4228,7 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView topLeftCell="B62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7593,6 +7697,20 @@
         <v>58</v>
       </c>
       <c r="N67" s="21"/>
+      <c r="O67" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" s="15">
+        <v>240</v>
+      </c>
+      <c r="Q67" s="16">
+        <f t="shared" ref="Q67:Q68" si="42">POWER(10,P67)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="R67" s="16" t="str">
+        <f t="shared" ref="R67:R68" si="43">RIGHT(Q67,P67)</f>
+        <v>1E+240</v>
+      </c>
     </row>
     <row r="68" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E68" s="15">
@@ -7630,13 +7748,27 @@
         <v>59</v>
       </c>
       <c r="N68" s="21"/>
+      <c r="O68" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P68" s="15">
+        <v>244</v>
+      </c>
+      <c r="Q68" s="16">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="R68" s="16" t="str">
+        <f t="shared" si="43"/>
+        <v>1E+244</v>
+      </c>
     </row>
     <row r="69" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E69" s="15">
         <v>60</v>
       </c>
       <c r="F69" s="16" t="str">
-        <f t="shared" ref="F69" si="42">H69&amp;I69</f>
+        <f t="shared" ref="F69" si="44">H69&amp;I69</f>
         <v>1연</v>
       </c>
       <c r="G69" s="16">
@@ -7677,7 +7809,7 @@
         <v>100연</v>
       </c>
       <c r="G70" s="16">
-        <f t="shared" ref="G70:G72" si="43">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="45">H70*J70</f>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H70" s="16">
@@ -7689,7 +7821,7 @@
         <v>연</v>
       </c>
       <c r="J70" s="15" t="str">
-        <f t="shared" ref="J70:J72" si="44">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="46">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K70" s="21">
@@ -7706,11 +7838,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="16" t="str">
-        <f t="shared" ref="F71:F72" si="45">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="47">H71&amp;I71</f>
         <v>1난</v>
       </c>
       <c r="G71" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H71" s="16">
@@ -7722,7 +7854,7 @@
         <v>난</v>
       </c>
       <c r="J71" s="15" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+232</v>
       </c>
       <c r="K71" s="21">
@@ -7739,11 +7871,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>100난</v>
+      </c>
+      <c r="G72" s="16">
         <f t="shared" si="45"/>
-        <v>100난</v>
-      </c>
-      <c r="G72" s="16">
-        <f t="shared" si="43"/>
         <v>1E+234</v>
       </c>
       <c r="H72" s="16">
@@ -7755,7 +7887,7 @@
         <v>난</v>
       </c>
       <c r="J72" s="15" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+232</v>
       </c>
       <c r="K72" s="21">
@@ -7772,11 +7904,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="16" t="str">
-        <f t="shared" ref="F73:F75" si="46">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="48">H73&amp;I73</f>
         <v>1군</v>
       </c>
       <c r="G73" s="16">
-        <f t="shared" ref="G73:G75" si="47">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="49">H73*J73</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H73" s="16">
@@ -7788,7 +7920,7 @@
         <v>군</v>
       </c>
       <c r="J73" s="15" t="str">
-        <f t="shared" ref="J73:J75" si="48">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="50">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K73" s="21">
@@ -7805,11 +7937,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100군</v>
       </c>
       <c r="G74" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+238</v>
       </c>
       <c r="H74" s="16">
@@ -7821,11 +7953,11 @@
         <v>군</v>
       </c>
       <c r="J74" s="15" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+236</v>
       </c>
       <c r="K74" s="21">
-        <f t="shared" ref="K74:K94" si="49">L74*2</f>
+        <f t="shared" ref="K74:K94" si="51">L74*2</f>
         <v>61000</v>
       </c>
       <c r="L74" s="21">
@@ -7838,31 +7970,31 @@
         <v>66</v>
       </c>
       <c r="F75" s="16" t="str">
-        <f t="shared" si="46"/>
-        <v>10</v>
-      </c>
-      <c r="G75" s="16" t="e">
-        <f t="shared" si="47"/>
-        <v>#N/A</v>
+        <f t="shared" si="48"/>
+        <v>1결</v>
+      </c>
+      <c r="G75" s="16">
+        <f t="shared" si="49"/>
+        <v>1E+240</v>
       </c>
       <c r="H75" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I75" s="15" cm="1">
+      <c r="I75" s="15" t="str" cm="1">
         <f t="array" ref="I75">IF(AND(H74&gt;=100,H75&lt;2),INDEX(O:O,MATCH(I74,O:O,0)+1,0),I74)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="15" t="e">
-        <f t="shared" si="48"/>
-        <v>#N/A</v>
+        <v>결</v>
+      </c>
+      <c r="J75" s="15" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+240</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>62500</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" ref="L75:L94" si="50">L74+250+QUOTIENT(E75,25)*250</f>
+        <f t="shared" ref="L75:L94" si="52">L74+250+QUOTIENT(E75,25)*250</f>
         <v>31250</v>
       </c>
     </row>
@@ -7871,31 +8003,31 @@
         <v>67</v>
       </c>
       <c r="F76" s="16" t="str">
-        <f t="shared" ref="F76:F80" si="51">H76&amp;I76</f>
-        <v>1000</v>
-      </c>
-      <c r="G76" s="16" t="e">
-        <f t="shared" ref="G76:G80" si="52">H76*J76</f>
-        <v>#N/A</v>
+        <f t="shared" ref="F76:F80" si="53">H76&amp;I76</f>
+        <v>100결</v>
+      </c>
+      <c r="G76" s="16">
+        <f t="shared" ref="G76:G80" si="54">H76*J76</f>
+        <v>1.0000000000000001E+242</v>
       </c>
       <c r="H76" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I76" s="15" cm="1">
+      <c r="I76" s="15" t="str" cm="1">
         <f t="array" ref="I76">IF(AND(H75&gt;=100,H76&lt;2),INDEX(O:O,MATCH(I75,O:O,0)+1,0),I75)</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="15" t="e">
-        <f t="shared" ref="J76:J80" si="53">VLOOKUP(I76,O:R,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>결</v>
+      </c>
+      <c r="J76" s="15" t="str">
+        <f t="shared" ref="J76:J80" si="55">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <v>1E+240</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>64000</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>32000</v>
       </c>
     </row>
@@ -7903,32 +8035,32 @@
       <c r="E77" s="15">
         <v>68</v>
       </c>
-      <c r="F77" s="16" t="e">
+      <c r="F77" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1맥</v>
+      </c>
+      <c r="G77" s="16">
+        <f t="shared" si="54"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="H77" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="15" t="str" cm="1">
+        <f t="array" ref="I77">IF(AND(H76&gt;=100,H77&lt;2),INDEX(O:O,MATCH(I76,O:O,0)+1,0),I76)</f>
+        <v>맥</v>
+      </c>
+      <c r="J77" s="15" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K77" s="21">
         <f t="shared" si="51"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G77" s="16" t="e">
+        <v>65500</v>
+      </c>
+      <c r="L77" s="21">
         <f t="shared" si="52"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H77" s="16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I77" s="15" t="e" cm="1">
-        <f t="array" ref="I77">IF(AND(H76&gt;=100,H77&lt;2),INDEX(O:O,MATCH(I76,O:O,0)+1,0),I76)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J77" s="15" t="e">
-        <f t="shared" si="53"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K77" s="21">
-        <f t="shared" si="49"/>
-        <v>65500</v>
-      </c>
-      <c r="L77" s="21">
-        <f t="shared" si="50"/>
         <v>32750</v>
       </c>
     </row>
@@ -7936,32 +8068,32 @@
       <c r="E78" s="15">
         <v>69</v>
       </c>
-      <c r="F78" s="16" t="e">
+      <c r="F78" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>100맥</v>
+      </c>
+      <c r="G78" s="16">
+        <f t="shared" si="54"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="H78" s="16">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I78" s="15" t="str" cm="1">
+        <f t="array" ref="I78">IF(AND(H77&gt;=100,H78&lt;2),INDEX(O:O,MATCH(I77,O:O,0)+1,0),I77)</f>
+        <v>맥</v>
+      </c>
+      <c r="J78" s="15" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K78" s="21">
         <f t="shared" si="51"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G78" s="16" t="e">
+        <v>67000</v>
+      </c>
+      <c r="L78" s="21">
         <f t="shared" si="52"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H78" s="16">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I78" s="15" t="e" cm="1">
-        <f t="array" ref="I78">IF(AND(H77&gt;=100,H78&lt;2),INDEX(O:O,MATCH(I77,O:O,0)+1,0),I77)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J78" s="15" t="e">
-        <f t="shared" si="53"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K78" s="21">
-        <f t="shared" si="49"/>
-        <v>67000</v>
-      </c>
-      <c r="L78" s="21">
-        <f t="shared" si="50"/>
         <v>33500</v>
       </c>
     </row>
@@ -7969,32 +8101,32 @@
       <c r="E79" s="15">
         <v>70</v>
       </c>
-      <c r="F79" s="16" t="e">
+      <c r="F79" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="G79" s="16" t="e">
+        <f t="shared" si="54"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H79" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="15" cm="1">
+        <f t="array" ref="I79">IF(AND(H78&gt;=100,H79&lt;2),INDEX(O:O,MATCH(I78,O:O,0)+1,0),I78)</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K79" s="21">
         <f t="shared" si="51"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G79" s="16" t="e">
+        <v>68500</v>
+      </c>
+      <c r="L79" s="21">
         <f t="shared" si="52"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H79" s="16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I79" s="15" t="e" cm="1">
-        <f t="array" ref="I79">IF(AND(H78&gt;=100,H79&lt;2),INDEX(O:O,MATCH(I78,O:O,0)+1,0),I78)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J79" s="15" t="e">
-        <f t="shared" si="53"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" s="21">
-        <f t="shared" si="49"/>
-        <v>68500</v>
-      </c>
-      <c r="L79" s="21">
-        <f t="shared" si="50"/>
         <v>34250</v>
       </c>
     </row>
@@ -8002,32 +8134,32 @@
       <c r="E80" s="15">
         <v>71</v>
       </c>
-      <c r="F80" s="16" t="e">
+      <c r="F80" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v>1000</v>
+      </c>
+      <c r="G80" s="16" t="e">
+        <f t="shared" si="54"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H80" s="16">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I80" s="15" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;=100,H80&lt;2),INDEX(O:O,MATCH(I79,O:O,0)+1,0),I79)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="15" t="e">
+        <f t="shared" si="55"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K80" s="21">
         <f t="shared" si="51"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G80" s="16" t="e">
+        <v>70000</v>
+      </c>
+      <c r="L80" s="21">
         <f t="shared" si="52"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H80" s="16">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I80" s="15" t="e" cm="1">
-        <f t="array" ref="I80">IF(AND(H79&gt;=100,H80&lt;2),INDEX(O:O,MATCH(I79,O:O,0)+1,0),I79)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J80" s="15" t="e">
-        <f t="shared" si="53"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K80" s="21">
-        <f t="shared" si="49"/>
-        <v>70000</v>
-      </c>
-      <c r="L80" s="21">
-        <f t="shared" si="50"/>
         <v>35000</v>
       </c>
     </row>
@@ -8036,11 +8168,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="16" t="e">
-        <f t="shared" ref="F81:F82" si="54">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="56">H81&amp;I81</f>
         <v>#N/A</v>
       </c>
       <c r="G81" s="16" t="e">
-        <f t="shared" ref="G81:G82" si="55">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="57">H81*J81</f>
         <v>#N/A</v>
       </c>
       <c r="H81" s="16">
@@ -8052,15 +8184,15 @@
         <v>#N/A</v>
       </c>
       <c r="J81" s="15" t="e">
-        <f t="shared" ref="J81:J82" si="56">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="58">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>71500</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>35750</v>
       </c>
     </row>
@@ -8069,11 +8201,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="16" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>#N/A</v>
       </c>
       <c r="G82" s="16" t="e">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>#N/A</v>
       </c>
       <c r="H82" s="16">
@@ -8085,15 +8217,15 @@
         <v>#N/A</v>
       </c>
       <c r="J82" s="15" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>#N/A</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>73000</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>36500</v>
       </c>
     </row>
@@ -8102,11 +8234,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="16" t="e">
-        <f t="shared" ref="F83:F86" si="57">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="59">H83&amp;I83</f>
         <v>#N/A</v>
       </c>
       <c r="G83" s="16" t="e">
-        <f t="shared" ref="G83:G86" si="58">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="60">H83*J83</f>
         <v>#N/A</v>
       </c>
       <c r="H83" s="16">
@@ -8118,15 +8250,15 @@
         <v>#N/A</v>
       </c>
       <c r="J83" s="15" t="e">
-        <f t="shared" ref="J83:J86" si="59">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="61">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>74500</v>
       </c>
       <c r="L83" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>37250</v>
       </c>
     </row>
@@ -8135,11 +8267,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="16" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="G84" s="16" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="H84" s="16">
@@ -8151,15 +8283,15 @@
         <v>#N/A</v>
       </c>
       <c r="J84" s="15" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>76500</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>38250</v>
       </c>
     </row>
@@ -8168,11 +8300,11 @@
         <v>76</v>
       </c>
       <c r="F85" s="16" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="G85" s="16" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="H85" s="16">
@@ -8184,15 +8316,15 @@
         <v>#N/A</v>
       </c>
       <c r="J85" s="15" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="K85" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>78500</v>
       </c>
       <c r="L85" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>39250</v>
       </c>
     </row>
@@ -8201,11 +8333,11 @@
         <v>77</v>
       </c>
       <c r="F86" s="16" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>#N/A</v>
       </c>
       <c r="G86" s="16" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>#N/A</v>
       </c>
       <c r="H86" s="16">
@@ -8217,15 +8349,15 @@
         <v>#N/A</v>
       </c>
       <c r="J86" s="15" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>#N/A</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>80500</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>40250</v>
       </c>
     </row>
@@ -8234,11 +8366,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="16" t="e">
-        <f t="shared" ref="F87:F90" si="60">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="62">H87&amp;I87</f>
         <v>#N/A</v>
       </c>
       <c r="G87" s="16" t="e">
-        <f t="shared" ref="G87:G90" si="61">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="63">H87*J87</f>
         <v>#N/A</v>
       </c>
       <c r="H87" s="16">
@@ -8250,15 +8382,15 @@
         <v>#N/A</v>
       </c>
       <c r="J87" s="15" t="e">
-        <f t="shared" ref="J87:J90" si="62">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="64">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>82500</v>
       </c>
       <c r="L87" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>41250</v>
       </c>
     </row>
@@ -8267,11 +8399,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="G88" s="16" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="H88" s="16">
@@ -8283,15 +8415,15 @@
         <v>#N/A</v>
       </c>
       <c r="J88" s="15" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="K88" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>84500</v>
       </c>
       <c r="L88" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>42250</v>
       </c>
     </row>
@@ -8300,11 +8432,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="G89" s="16" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="H89" s="16">
@@ -8316,15 +8448,15 @@
         <v>#N/A</v>
       </c>
       <c r="J89" s="15" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="K89" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>86500</v>
       </c>
       <c r="L89" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>43250</v>
       </c>
     </row>
@@ -8333,11 +8465,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="16" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
       <c r="G90" s="16" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
       <c r="H90" s="16">
@@ -8349,15 +8481,15 @@
         <v>#N/A</v>
       </c>
       <c r="J90" s="15" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="K90" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>88500</v>
       </c>
       <c r="L90" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>44250</v>
       </c>
     </row>
@@ -8366,11 +8498,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="16" t="e">
-        <f t="shared" ref="F91:F94" si="63">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="65">H91&amp;I91</f>
         <v>#N/A</v>
       </c>
       <c r="G91" s="16" t="e">
-        <f t="shared" ref="G91:G94" si="64">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="66">H91*J91</f>
         <v>#N/A</v>
       </c>
       <c r="H91" s="16">
@@ -8382,15 +8514,15 @@
         <v>#N/A</v>
       </c>
       <c r="J91" s="15" t="e">
-        <f t="shared" ref="J91:J94" si="65">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="67">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K91" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>90500</v>
       </c>
       <c r="L91" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>45250</v>
       </c>
     </row>
@@ -8399,11 +8531,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="16" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="G92" s="16" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="H92" s="16">
@@ -8415,15 +8547,15 @@
         <v>#N/A</v>
       </c>
       <c r="J92" s="15" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#N/A</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>92500</v>
       </c>
       <c r="L92" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>46250</v>
       </c>
     </row>
@@ -8432,11 +8564,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="16" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="G93" s="16" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="H93" s="16">
@@ -8448,15 +8580,15 @@
         <v>#N/A</v>
       </c>
       <c r="J93" s="15" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#N/A</v>
       </c>
       <c r="K93" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>94500</v>
       </c>
       <c r="L93" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>47250</v>
       </c>
     </row>
@@ -8465,11 +8597,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="16" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="G94" s="16" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="H94" s="16">
@@ -8481,15 +8613,15 @@
         <v>#N/A</v>
       </c>
       <c r="J94" s="15" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#N/A</v>
       </c>
       <c r="K94" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>96500</v>
       </c>
       <c r="L94" s="21">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>48250</v>
       </c>
     </row>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20C2617-B195-495A-B28D-339C61C02C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09F1CCB-3EF3-4961-AEE5-DEDDDC373D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,12 +1032,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B67" si="0">B3</f>
+        <f t="shared" ref="B4:B68" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1209,29 +1209,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="1">G3</f>
+        <f t="shared" ref="G4:G68" si="1">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="2">I3</f>
+        <f t="shared" ref="I4:I68" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="3">J3</f>
+        <f t="shared" ref="J4:J68" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="4">K3</f>
+        <f t="shared" ref="K4:K68" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="5">M3+200</f>
+        <f t="shared" ref="M4:M68" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="24">
-        <f>H61*100</f>
+        <f t="shared" ref="H62:H67" si="6">H61*100</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="I62">
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="24">
-        <f>H62*100</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="I63">
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="24">
-        <f>H63*100</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999999992E+231</v>
       </c>
       <c r="I64">
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="24">
-        <f>H64*100</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999999984E+233</v>
       </c>
       <c r="I65">
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="24">
-        <f>H65*100</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999999983E+235</v>
       </c>
       <c r="I66">
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="24">
-        <f>H66*100</f>
+        <f t="shared" si="6"/>
         <v>9.9999999999999976E+237</v>
       </c>
       <c r="I67">
@@ -4211,9 +4211,105 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C68">
+        <v>9065</v>
+      </c>
+      <c r="D68">
+        <v>62500</v>
+      </c>
+      <c r="E68">
+        <v>9065</v>
+      </c>
+      <c r="F68">
+        <v>31250</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="24">
+        <f t="shared" ref="H68:H69" si="7">H67*100</f>
+        <v>9.9999999999999983E+239</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" ref="B69" si="8">B68</f>
+        <v>1-1</v>
+      </c>
+      <c r="C69">
+        <v>9065</v>
+      </c>
+      <c r="D69">
+        <v>64000</v>
+      </c>
+      <c r="E69">
+        <v>9065</v>
+      </c>
+      <c r="F69">
+        <v>32000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69" si="9">G68</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999981E+241</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:K69" si="10">I68</f>
+        <v>1000</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>57</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ref="M69" si="11">M68+200</f>
+        <v>15400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E67 G64:M67">
+  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E69 G64:M69">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09F1CCB-3EF3-4961-AEE5-DEDDDC373D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C35818-C958-40B1-A18B-1C4973290E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,12 +1032,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B68" si="0">B3</f>
+        <f t="shared" ref="B4:B70" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1209,29 +1209,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G68" si="1">G3</f>
+        <f t="shared" ref="G4:G70" si="1">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I68" si="2">I3</f>
+        <f t="shared" ref="I4:I70" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J68" si="3">J3</f>
+        <f t="shared" ref="J4:J70" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K68" si="4">K3</f>
+        <f t="shared" ref="K4:K70" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M68" si="5">M3+200</f>
+        <f t="shared" ref="M4:M70" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="24">
-        <f t="shared" ref="H68:H69" si="7">H67*100</f>
+        <f t="shared" ref="H68:H71" si="7">H67*100</f>
         <v>9.9999999999999983E+239</v>
       </c>
       <c r="I68">
@@ -4307,9 +4307,105 @@
         <v>15400</v>
       </c>
     </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C70">
+        <v>9065</v>
+      </c>
+      <c r="D70">
+        <v>65500</v>
+      </c>
+      <c r="E70">
+        <v>9065</v>
+      </c>
+      <c r="F70">
+        <v>32750</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H70" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999977E+243</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>57</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" ref="B71" si="12">B70</f>
+        <v>1-1</v>
+      </c>
+      <c r="C71">
+        <v>9065</v>
+      </c>
+      <c r="D71">
+        <v>67000</v>
+      </c>
+      <c r="E71">
+        <v>9065</v>
+      </c>
+      <c r="F71">
+        <v>33500</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71" si="13">G70</f>
+        <v>1</v>
+      </c>
+      <c r="H71" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999968E+245</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71:K71" si="14">I70</f>
+        <v>1000</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ref="M71" si="15">M70+200</f>
+        <v>15800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E69 G64:M69">
+  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E71 G64:M71">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C35818-C958-40B1-A18B-1C4973290E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB4ACD-40FE-4529-9F8E-6DB1D3E8EB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,12 +1032,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B70" si="0">B3</f>
+        <f t="shared" ref="B4:B72" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1209,29 +1209,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G70" si="1">G3</f>
+        <f t="shared" ref="G4:G72" si="1">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I70" si="2">I3</f>
+        <f t="shared" ref="I4:I72" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J70" si="3">J3</f>
+        <f t="shared" ref="J4:J72" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K70" si="4">K3</f>
+        <f t="shared" ref="K4:K72" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M70" si="5">M3+200</f>
+        <f t="shared" ref="M4:M72" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="24">
-        <f t="shared" ref="H68:H71" si="7">H67*100</f>
+        <f t="shared" ref="H68:H73" si="7">H67*100</f>
         <v>9.9999999999999983E+239</v>
       </c>
       <c r="I68">
@@ -4403,9 +4403,105 @@
         <v>15800</v>
       </c>
     </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C72">
+        <v>9065</v>
+      </c>
+      <c r="D72">
+        <v>68500</v>
+      </c>
+      <c r="E72">
+        <v>9065</v>
+      </c>
+      <c r="F72">
+        <v>34250</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H72" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999967E+247</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" ref="B73" si="16">B72</f>
+        <v>1-1</v>
+      </c>
+      <c r="C73">
+        <v>9065</v>
+      </c>
+      <c r="D73">
+        <v>70000</v>
+      </c>
+      <c r="E73">
+        <v>9065</v>
+      </c>
+      <c r="F73">
+        <v>35000</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73" si="17">G72</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="24">
+        <f t="shared" si="7"/>
+        <v>9.999999999999996E+249</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73:K73" si="18">I72</f>
+        <v>1000</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ref="M73" si="19">M72+200</f>
+        <v>16200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E71 G64:M71">
+  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E73 G64:M73">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB4ACD-40FE-4529-9F8E-6DB1D3E8EB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B78A4C-0F5A-4B69-914A-5C55A71D1461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,18 @@
   </si>
   <si>
     <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,12 +1044,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" ref="B4:B72" si="0">B3</f>
+        <f t="shared" ref="B4:B74" si="0">B3</f>
         <v>1-1</v>
       </c>
       <c r="C4">
@@ -1209,29 +1221,29 @@
         <v>500</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G72" si="1">G3</f>
+        <f t="shared" ref="G4:G74" si="1">G3</f>
         <v>1</v>
       </c>
       <c r="H4" s="23">
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I72" si="2">I3</f>
+        <f t="shared" ref="I4:I74" si="2">I3</f>
         <v>1000</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J72" si="3">J3</f>
+        <f t="shared" ref="J4:J74" si="3">J3</f>
         <v>8</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K72" si="4">K3</f>
+        <f t="shared" ref="K4:K74" si="4">K3</f>
         <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>57</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M72" si="5">M3+200</f>
+        <f t="shared" ref="M4:M74" si="5">M3+200</f>
         <v>2400</v>
       </c>
       <c r="O4" s="22"/>
@@ -4236,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="24">
-        <f t="shared" ref="H68:H73" si="7">H67*100</f>
+        <f t="shared" ref="H68:H75" si="7">H67*100</f>
         <v>9.9999999999999983E+239</v>
       </c>
       <c r="I68">
@@ -4499,9 +4511,105 @@
         <v>16200</v>
       </c>
     </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1-1</v>
+      </c>
+      <c r="C74">
+        <v>9065</v>
+      </c>
+      <c r="D74">
+        <v>71500</v>
+      </c>
+      <c r="E74">
+        <v>9065</v>
+      </c>
+      <c r="F74">
+        <v>35750</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H74" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999969E+251</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" ref="B75" si="20">B74</f>
+        <v>1-1</v>
+      </c>
+      <c r="C75">
+        <v>9065</v>
+      </c>
+      <c r="D75">
+        <v>73000</v>
+      </c>
+      <c r="E75">
+        <v>9065</v>
+      </c>
+      <c r="F75">
+        <v>36500</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75" si="21">G74</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999968E+253</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:K75" si="22">I74</f>
+        <v>1000</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75" si="23">M74+200</f>
+        <v>16600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E73 G64:M73">
+  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E75 G64:M75">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4516,7 +4624,7 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView topLeftCell="B62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8087,6 +8195,20 @@
         <v>60</v>
       </c>
       <c r="N69" s="21"/>
+      <c r="O69" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P69" s="15">
+        <v>248</v>
+      </c>
+      <c r="Q69" s="16">
+        <f t="shared" ref="Q69:Q71" si="45">POWER(10,P69)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="R69" s="16" t="str">
+        <f t="shared" ref="R69:R71" si="46">RIGHT(Q69,P69)</f>
+        <v>1E+248</v>
+      </c>
     </row>
     <row r="70" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E70" s="15">
@@ -8097,7 +8219,7 @@
         <v>100연</v>
       </c>
       <c r="G70" s="16">
-        <f t="shared" ref="G70:G72" si="45">H70*J70</f>
+        <f t="shared" ref="G70:G72" si="47">H70*J70</f>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H70" s="16">
@@ -8109,7 +8231,7 @@
         <v>연</v>
       </c>
       <c r="J70" s="15" t="str">
-        <f t="shared" ref="J70:J72" si="46">VLOOKUP(I70,O:R,4,FALSE)</f>
+        <f t="shared" ref="J70:J72" si="48">VLOOKUP(I70,O:R,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K70" s="21">
@@ -8119,6 +8241,20 @@
       <c r="L70" s="21">
         <f t="shared" si="4"/>
         <v>27500</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" s="15">
+        <v>252</v>
+      </c>
+      <c r="Q70" s="16">
+        <f t="shared" si="45"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="R70" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>1E+252</v>
       </c>
     </row>
     <row r="71" spans="5:27" x14ac:dyDescent="0.3">
@@ -8126,11 +8262,11 @@
         <v>62</v>
       </c>
       <c r="F71" s="16" t="str">
-        <f t="shared" ref="F71:F72" si="47">H71&amp;I71</f>
+        <f t="shared" ref="F71:F72" si="49">H71&amp;I71</f>
         <v>1난</v>
       </c>
       <c r="G71" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H71" s="16">
@@ -8142,16 +8278,30 @@
         <v>난</v>
       </c>
       <c r="J71" s="15" t="str">
+        <f t="shared" si="48"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K71" s="21">
+        <f t="shared" si="2"/>
+        <v>56500</v>
+      </c>
+      <c r="L71" s="21">
+        <f t="shared" si="4"/>
+        <v>28250</v>
+      </c>
+      <c r="O71" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P71" s="15">
+        <v>256</v>
+      </c>
+      <c r="Q71" s="16">
+        <f t="shared" si="45"/>
+        <v>1E+256</v>
+      </c>
+      <c r="R71" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>1E+232</v>
-      </c>
-      <c r="K71" s="21">
-        <f t="shared" si="2"/>
-        <v>56500</v>
-      </c>
-      <c r="L71" s="21">
-        <f t="shared" si="4"/>
-        <v>28250</v>
+        <v>1E+256</v>
       </c>
     </row>
     <row r="72" spans="5:27" x14ac:dyDescent="0.3">
@@ -8159,11 +8309,11 @@
         <v>63</v>
       </c>
       <c r="F72" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>100난</v>
+      </c>
+      <c r="G72" s="16">
         <f t="shared" si="47"/>
-        <v>100난</v>
-      </c>
-      <c r="G72" s="16">
-        <f t="shared" si="45"/>
         <v>1E+234</v>
       </c>
       <c r="H72" s="16">
@@ -8175,7 +8325,7 @@
         <v>난</v>
       </c>
       <c r="J72" s="15" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+232</v>
       </c>
       <c r="K72" s="21">
@@ -8192,11 +8342,11 @@
         <v>64</v>
       </c>
       <c r="F73" s="16" t="str">
-        <f t="shared" ref="F73:F75" si="48">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="50">H73&amp;I73</f>
         <v>1군</v>
       </c>
       <c r="G73" s="16">
-        <f t="shared" ref="G73:G75" si="49">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="51">H73*J73</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H73" s="16">
@@ -8208,7 +8358,7 @@
         <v>군</v>
       </c>
       <c r="J73" s="15" t="str">
-        <f t="shared" ref="J73:J75" si="50">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="52">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K73" s="21">
@@ -8225,11 +8375,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>100군</v>
       </c>
       <c r="G74" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+238</v>
       </c>
       <c r="H74" s="16">
@@ -8241,11 +8391,11 @@
         <v>군</v>
       </c>
       <c r="J74" s="15" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+236</v>
       </c>
       <c r="K74" s="21">
-        <f t="shared" ref="K74:K94" si="51">L74*2</f>
+        <f t="shared" ref="K74:K94" si="53">L74*2</f>
         <v>61000</v>
       </c>
       <c r="L74" s="21">
@@ -8258,11 +8408,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1결</v>
       </c>
       <c r="G75" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+240</v>
       </c>
       <c r="H75" s="16">
@@ -8274,15 +8424,15 @@
         <v>결</v>
       </c>
       <c r="J75" s="15" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+240</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>62500</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" ref="L75:L94" si="52">L74+250+QUOTIENT(E75,25)*250</f>
+        <f t="shared" ref="L75:L94" si="54">L74+250+QUOTIENT(E75,25)*250</f>
         <v>31250</v>
       </c>
     </row>
@@ -8291,11 +8441,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="16" t="str">
-        <f t="shared" ref="F76:F80" si="53">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="55">H76&amp;I76</f>
         <v>100결</v>
       </c>
       <c r="G76" s="16">
-        <f t="shared" ref="G76:G80" si="54">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="56">H76*J76</f>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H76" s="16">
@@ -8307,15 +8457,15 @@
         <v>결</v>
       </c>
       <c r="J76" s="15" t="str">
-        <f t="shared" ref="J76:J80" si="55">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="57">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>64000</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>32000</v>
       </c>
     </row>
@@ -8324,11 +8474,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1맥</v>
       </c>
       <c r="G77" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="H77" s="16">
@@ -8340,15 +8490,15 @@
         <v>맥</v>
       </c>
       <c r="J77" s="15" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+244</v>
       </c>
       <c r="K77" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>65500</v>
       </c>
       <c r="L77" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>32750</v>
       </c>
     </row>
@@ -8357,11 +8507,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100맥</v>
       </c>
       <c r="G78" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.0000000000000001E+246</v>
       </c>
       <c r="H78" s="16">
@@ -8373,15 +8523,15 @@
         <v>맥</v>
       </c>
       <c r="J78" s="15" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+244</v>
       </c>
       <c r="K78" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>67000</v>
       </c>
       <c r="L78" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>33500</v>
       </c>
     </row>
@@ -8390,31 +8540,31 @@
         <v>70</v>
       </c>
       <c r="F79" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1토</v>
+      </c>
+      <c r="G79" s="16">
+        <f t="shared" si="56"/>
+        <v>1E+248</v>
+      </c>
+      <c r="H79" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="15" t="str" cm="1">
+        <f t="array" ref="I79">IF(AND(H78&gt;=100,H79&lt;2),INDEX(O:O,MATCH(I78,O:O,0)+1,0),I78)</f>
+        <v>토</v>
+      </c>
+      <c r="J79" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K79" s="21">
         <f t="shared" si="53"/>
-        <v>10</v>
-      </c>
-      <c r="G79" s="16" t="e">
+        <v>68500</v>
+      </c>
+      <c r="L79" s="21">
         <f t="shared" si="54"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H79" s="16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I79" s="15" cm="1">
-        <f t="array" ref="I79">IF(AND(H78&gt;=100,H79&lt;2),INDEX(O:O,MATCH(I78,O:O,0)+1,0),I78)</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="15" t="e">
-        <f t="shared" si="55"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" s="21">
-        <f t="shared" si="51"/>
-        <v>68500</v>
-      </c>
-      <c r="L79" s="21">
-        <f t="shared" si="52"/>
         <v>34250</v>
       </c>
     </row>
@@ -8423,31 +8573,31 @@
         <v>71</v>
       </c>
       <c r="F80" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>100토</v>
+      </c>
+      <c r="G80" s="16">
+        <f t="shared" si="56"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="H80" s="16">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I80" s="15" t="str" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;=100,H80&lt;2),INDEX(O:O,MATCH(I79,O:O,0)+1,0),I79)</f>
+        <v>토</v>
+      </c>
+      <c r="J80" s="15" t="str">
+        <f t="shared" si="57"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K80" s="21">
         <f t="shared" si="53"/>
-        <v>1000</v>
-      </c>
-      <c r="G80" s="16" t="e">
+        <v>70000</v>
+      </c>
+      <c r="L80" s="21">
         <f t="shared" si="54"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H80" s="16">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I80" s="15" cm="1">
-        <f t="array" ref="I80">IF(AND(H79&gt;=100,H80&lt;2),INDEX(O:O,MATCH(I79,O:O,0)+1,0),I79)</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="15" t="e">
-        <f t="shared" si="55"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K80" s="21">
-        <f t="shared" si="51"/>
-        <v>70000</v>
-      </c>
-      <c r="L80" s="21">
-        <f t="shared" si="52"/>
         <v>35000</v>
       </c>
     </row>
@@ -8455,32 +8605,32 @@
       <c r="E81" s="15">
         <v>72</v>
       </c>
-      <c r="F81" s="16" t="e">
-        <f t="shared" ref="F81:F82" si="56">H81&amp;I81</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G81" s="16" t="e">
-        <f t="shared" ref="G81:G82" si="57">H81*J81</f>
-        <v>#N/A</v>
+      <c r="F81" s="16" t="str">
+        <f t="shared" ref="F81:F82" si="58">H81&amp;I81</f>
+        <v>1산</v>
+      </c>
+      <c r="G81" s="16">
+        <f t="shared" ref="G81:G82" si="59">H81*J81</f>
+        <v>1.0000000000000001E+252</v>
       </c>
       <c r="H81" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I81" s="15" t="e" cm="1">
+      <c r="I81" s="15" t="str" cm="1">
         <f t="array" ref="I81">IF(AND(H80&gt;=100,H81&lt;2),INDEX(O:O,MATCH(I80,O:O,0)+1,0),I80)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J81" s="15" t="e">
-        <f t="shared" ref="J81:J82" si="58">VLOOKUP(I81,O:R,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>산</v>
+      </c>
+      <c r="J81" s="15" t="str">
+        <f t="shared" ref="J81:J82" si="60">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <v>1E+252</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>71500</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>35750</v>
       </c>
     </row>
@@ -8488,32 +8638,32 @@
       <c r="E82" s="15">
         <v>73</v>
       </c>
-      <c r="F82" s="16" t="e">
-        <f t="shared" si="56"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G82" s="16" t="e">
-        <f t="shared" si="57"/>
-        <v>#N/A</v>
+      <c r="F82" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>100산</v>
+      </c>
+      <c r="G82" s="16">
+        <f t="shared" si="59"/>
+        <v>1.0000000000000001E+254</v>
       </c>
       <c r="H82" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I82" s="15" t="e" cm="1">
+      <c r="I82" s="15" t="str" cm="1">
         <f t="array" ref="I82">IF(AND(H81&gt;=100,H82&lt;2),INDEX(O:O,MATCH(I81,O:O,0)+1,0),I81)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J82" s="15" t="e">
-        <f t="shared" si="58"/>
-        <v>#N/A</v>
+        <v>산</v>
+      </c>
+      <c r="J82" s="15" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+252</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>73000</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>36500</v>
       </c>
     </row>
@@ -8521,32 +8671,32 @@
       <c r="E83" s="15">
         <v>74</v>
       </c>
-      <c r="F83" s="16" t="e">
-        <f t="shared" ref="F83:F86" si="59">H83&amp;I83</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G83" s="16" t="e">
-        <f t="shared" ref="G83:G86" si="60">H83*J83</f>
-        <v>#N/A</v>
+      <c r="F83" s="16" t="str">
+        <f t="shared" ref="F83:F86" si="61">H83&amp;I83</f>
+        <v>1강</v>
+      </c>
+      <c r="G83" s="16">
+        <f t="shared" ref="G83:G86" si="62">H83*J83</f>
+        <v>1E+256</v>
       </c>
       <c r="H83" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I83" s="15" t="e" cm="1">
+      <c r="I83" s="15" t="str" cm="1">
         <f t="array" ref="I83">IF(AND(H82&gt;=100,H83&lt;2),INDEX(O:O,MATCH(I82,O:O,0)+1,0),I82)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J83" s="15" t="e">
-        <f t="shared" ref="J83:J86" si="61">VLOOKUP(I83,O:R,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>강</v>
+      </c>
+      <c r="J83" s="15" t="str">
+        <f t="shared" ref="J83:J86" si="63">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <v>1E+256</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>74500</v>
       </c>
       <c r="L83" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>37250</v>
       </c>
     </row>
@@ -8554,32 +8704,32 @@
       <c r="E84" s="15">
         <v>75</v>
       </c>
-      <c r="F84" s="16" t="e">
-        <f t="shared" si="59"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G84" s="16" t="e">
-        <f t="shared" si="60"/>
-        <v>#N/A</v>
+      <c r="F84" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>100강</v>
+      </c>
+      <c r="G84" s="16">
+        <f t="shared" si="62"/>
+        <v>1.0000000000000001E+258</v>
       </c>
       <c r="H84" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I84" s="15" t="e" cm="1">
+      <c r="I84" s="15" t="str" cm="1">
         <f t="array" ref="I84">IF(AND(H83&gt;=100,H84&lt;2),INDEX(O:O,MATCH(I83,O:O,0)+1,0),I83)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J84" s="15" t="e">
-        <f t="shared" si="61"/>
-        <v>#N/A</v>
+        <v>강</v>
+      </c>
+      <c r="J84" s="15" t="str">
+        <f t="shared" si="63"/>
+        <v>1E+256</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>76500</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>38250</v>
       </c>
     </row>
@@ -8587,32 +8737,32 @@
       <c r="E85" s="15">
         <v>76</v>
       </c>
-      <c r="F85" s="16" t="e">
-        <f t="shared" si="59"/>
+      <c r="F85" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>10</v>
+      </c>
+      <c r="G85" s="16" t="e">
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
-      <c r="G85" s="16" t="e">
-        <f t="shared" si="60"/>
+      <c r="H85" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="15" cm="1">
+        <f t="array" ref="I85">IF(AND(H84&gt;=100,H85&lt;2),INDEX(O:O,MATCH(I84,O:O,0)+1,0),I84)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="15" t="e">
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
-      <c r="H85" s="16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I85" s="15" t="e" cm="1">
-        <f t="array" ref="I85">IF(AND(H84&gt;=100,H85&lt;2),INDEX(O:O,MATCH(I84,O:O,0)+1,0),I84)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J85" s="15" t="e">
-        <f t="shared" si="61"/>
-        <v>#N/A</v>
-      </c>
       <c r="K85" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>78500</v>
       </c>
       <c r="L85" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39250</v>
       </c>
     </row>
@@ -8620,32 +8770,32 @@
       <c r="E86" s="15">
         <v>77</v>
       </c>
-      <c r="F86" s="16" t="e">
-        <f t="shared" si="59"/>
+      <c r="F86" s="16" t="str">
+        <f t="shared" si="61"/>
+        <v>1000</v>
+      </c>
+      <c r="G86" s="16" t="e">
+        <f t="shared" si="62"/>
         <v>#N/A</v>
       </c>
-      <c r="G86" s="16" t="e">
-        <f t="shared" si="60"/>
+      <c r="H86" s="16">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I86" s="15" cm="1">
+        <f t="array" ref="I86">IF(AND(H85&gt;=100,H86&lt;2),INDEX(O:O,MATCH(I85,O:O,0)+1,0),I85)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="15" t="e">
+        <f t="shared" si="63"/>
         <v>#N/A</v>
       </c>
-      <c r="H86" s="16">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I86" s="15" t="e" cm="1">
-        <f t="array" ref="I86">IF(AND(H85&gt;=100,H86&lt;2),INDEX(O:O,MATCH(I85,O:O,0)+1,0),I85)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J86" s="15" t="e">
-        <f t="shared" si="61"/>
-        <v>#N/A</v>
-      </c>
       <c r="K86" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>80500</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>40250</v>
       </c>
     </row>
@@ -8654,11 +8804,11 @@
         <v>78</v>
       </c>
       <c r="F87" s="16" t="e">
-        <f t="shared" ref="F87:F90" si="62">H87&amp;I87</f>
+        <f t="shared" ref="F87:F90" si="64">H87&amp;I87</f>
         <v>#N/A</v>
       </c>
       <c r="G87" s="16" t="e">
-        <f t="shared" ref="G87:G90" si="63">H87*J87</f>
+        <f t="shared" ref="G87:G90" si="65">H87*J87</f>
         <v>#N/A</v>
       </c>
       <c r="H87" s="16">
@@ -8670,15 +8820,15 @@
         <v>#N/A</v>
       </c>
       <c r="J87" s="15" t="e">
-        <f t="shared" ref="J87:J90" si="64">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <f t="shared" ref="J87:J90" si="66">VLOOKUP(I87,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>82500</v>
       </c>
       <c r="L87" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>41250</v>
       </c>
     </row>
@@ -8687,11 +8837,11 @@
         <v>79</v>
       </c>
       <c r="F88" s="16" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="G88" s="16" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="H88" s="16">
@@ -8703,15 +8853,15 @@
         <v>#N/A</v>
       </c>
       <c r="J88" s="15" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="K88" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>84500</v>
       </c>
       <c r="L88" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>42250</v>
       </c>
     </row>
@@ -8720,11 +8870,11 @@
         <v>80</v>
       </c>
       <c r="F89" s="16" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="G89" s="16" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="H89" s="16">
@@ -8736,15 +8886,15 @@
         <v>#N/A</v>
       </c>
       <c r="J89" s="15" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="K89" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>86500</v>
       </c>
       <c r="L89" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>43250</v>
       </c>
     </row>
@@ -8753,11 +8903,11 @@
         <v>81</v>
       </c>
       <c r="F90" s="16" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>#N/A</v>
       </c>
       <c r="G90" s="16" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#N/A</v>
       </c>
       <c r="H90" s="16">
@@ -8769,15 +8919,15 @@
         <v>#N/A</v>
       </c>
       <c r="J90" s="15" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>#N/A</v>
       </c>
       <c r="K90" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>88500</v>
       </c>
       <c r="L90" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>44250</v>
       </c>
     </row>
@@ -8786,11 +8936,11 @@
         <v>82</v>
       </c>
       <c r="F91" s="16" t="e">
-        <f t="shared" ref="F91:F94" si="65">H91&amp;I91</f>
+        <f t="shared" ref="F91:F94" si="67">H91&amp;I91</f>
         <v>#N/A</v>
       </c>
       <c r="G91" s="16" t="e">
-        <f t="shared" ref="G91:G94" si="66">H91*J91</f>
+        <f t="shared" ref="G91:G94" si="68">H91*J91</f>
         <v>#N/A</v>
       </c>
       <c r="H91" s="16">
@@ -8802,15 +8952,15 @@
         <v>#N/A</v>
       </c>
       <c r="J91" s="15" t="e">
-        <f t="shared" ref="J91:J94" si="67">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <f t="shared" ref="J91:J94" si="69">VLOOKUP(I91,O:R,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K91" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>90500</v>
       </c>
       <c r="L91" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>45250</v>
       </c>
     </row>
@@ -8819,11 +8969,11 @@
         <v>83</v>
       </c>
       <c r="F92" s="16" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#N/A</v>
       </c>
       <c r="G92" s="16" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#N/A</v>
       </c>
       <c r="H92" s="16">
@@ -8835,15 +8985,15 @@
         <v>#N/A</v>
       </c>
       <c r="J92" s="15" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>92500</v>
       </c>
       <c r="L92" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>46250</v>
       </c>
     </row>
@@ -8852,11 +9002,11 @@
         <v>84</v>
       </c>
       <c r="F93" s="16" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#N/A</v>
       </c>
       <c r="G93" s="16" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#N/A</v>
       </c>
       <c r="H93" s="16">
@@ -8868,15 +9018,15 @@
         <v>#N/A</v>
       </c>
       <c r="J93" s="15" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
       <c r="K93" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>94500</v>
       </c>
       <c r="L93" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>47250</v>
       </c>
     </row>
@@ -8885,11 +9035,11 @@
         <v>85</v>
       </c>
       <c r="F94" s="16" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>#N/A</v>
       </c>
       <c r="G94" s="16" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>#N/A</v>
       </c>
       <c r="H94" s="16">
@@ -8901,15 +9051,15 @@
         <v>#N/A</v>
       </c>
       <c r="J94" s="15" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>#N/A</v>
       </c>
       <c r="K94" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96500</v>
       </c>
       <c r="L94" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>48250</v>
       </c>
     </row>

--- a/Assets/06.Table/StudentSpotTower.xlsx
+++ b/Assets/06.Table/StudentSpotTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B78A4C-0F5A-4B69-914A-5C55A71D1461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2310D25C-7E3C-47AE-9087-DE66219EA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,6 +443,22 @@
   </si>
   <si>
     <t>강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,12 +1060,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K78" sqref="K78"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4248,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="24">
-        <f t="shared" ref="H68:H75" si="7">H67*100</f>
+        <f t="shared" ref="H68:H81" si="7">H67*100</f>
         <v>9.9999999999999983E+239</v>
       </c>
       <c r="I68">
@@ -4564,7 +4580,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" ref="B75" si="20">B74</f>
+        <f t="shared" ref="B75:B81" si="20">B74</f>
         <v>1-1</v>
       </c>
       <c r="C75">
@@ -4580,7 +4596,7 @@
         <v>36500</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75" si="21">G74</f>
+        <f t="shared" ref="G75:G81" si="21">G74</f>
         <v>1</v>
       </c>
       <c r="H75" s="24">
@@ -4603,13 +4619,301 @@
         <v>57</v>
       </c>
       <c r="M75">
-        <f t="shared" ref="M75" si="23">M74+200</f>
+        <f t="shared" ref="M75:M81" si="23">M74+200</f>
         <v>16600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="C76">
+        <v>9065</v>
+      </c>
+      <c r="D76">
+        <v>74500</v>
+      </c>
+      <c r="E76">
+        <v>9065</v>
+      </c>
+      <c r="F76">
+        <v>37250</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H76" s="24">
+        <f t="shared" si="7"/>
+        <v>9.999999999999997E+255</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76:K81" si="24">I75</f>
+        <v>1000</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="23"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="C77">
+        <v>9065</v>
+      </c>
+      <c r="D77">
+        <v>76000</v>
+      </c>
+      <c r="E77">
+        <v>9065</v>
+      </c>
+      <c r="F77">
+        <v>38000</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H77" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999963E+257</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="24"/>
+        <v>1000</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="23"/>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="C78">
+        <v>9065</v>
+      </c>
+      <c r="D78">
+        <v>77500</v>
+      </c>
+      <c r="E78">
+        <v>9065</v>
+      </c>
+      <c r="F78">
+        <v>38750</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H78" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999966E+259</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78:K78" si="25">I77</f>
+        <v>1000</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="23"/>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="C79">
+        <v>9065</v>
+      </c>
+      <c r="D79">
+        <v>79000</v>
+      </c>
+      <c r="E79">
+        <v>9065</v>
+      </c>
+      <c r="F79">
+        <v>39500</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H79" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999967E+261</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="24"/>
+        <v>1000</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>57</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="23"/>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="C80">
+        <v>9065</v>
+      </c>
+      <c r="D80">
+        <v>80500</v>
+      </c>
+      <c r="E80">
+        <v>9065</v>
+      </c>
+      <c r="F80">
+        <v>40250</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H80" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999971E+263</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80:K80" si="26">I79</f>
+        <v>1000</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="23"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="C81">
+        <v>9065</v>
+      </c>
+      <c r="D81">
+        <v>82000</v>
+      </c>
+      <c r="E81">
+        <v>9065</v>
+      </c>
+      <c r="F81">
+        <v>41000</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H81" s="24">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999974E+265</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="24"/>
+        <v>1000</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="23"/>
+        <v>17800</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E75 G64:M75">
+  <conditionalFormatting sqref="G2:N12 G13:G63 I13:M63 H62:H63 A2:E81 G64:M81">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -4624,7 +4928,7 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView topLeftCell="B62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8336,17 +8640,31 @@
         <f t="shared" si="4"/>
         <v>29000</v>
       </c>
+      <c r="O72" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" s="15">
+        <v>260</v>
+      </c>
+      <c r="Q72" s="16">
+        <f t="shared" ref="Q72:Q75" si="50">POWER(10,P72)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="R72" s="16" t="str">
+        <f t="shared" ref="R72:R75" si="51">RIGHT(Q72,P72)</f>
+        <v>1E+260</v>
+      </c>
     </row>
     <row r="73" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E73" s="15">
         <v>64</v>
       </c>
       <c r="F73" s="16" t="str">
-        <f t="shared" ref="F73:F75" si="50">H73&amp;I73</f>
+        <f t="shared" ref="F73:F75" si="52">H73&amp;I73</f>
         <v>1군</v>
       </c>
       <c r="G73" s="16">
-        <f t="shared" ref="G73:G75" si="51">H73*J73</f>
+        <f t="shared" ref="G73:G75" si="53">H73*J73</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H73" s="16">
@@ -8358,7 +8676,7 @@
         <v>군</v>
       </c>
       <c r="J73" s="15" t="str">
-        <f t="shared" ref="J73:J75" si="52">VLOOKUP(I73,O:R,4,FALSE)</f>
+        <f t="shared" ref="J73:J75" si="54">VLOOKUP(I73,O:R,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K73" s="21">
@@ -8368,6 +8686,20 @@
       <c r="L73" s="21">
         <f t="shared" si="4"/>
         <v>29750</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" s="15">
+        <v>264</v>
+      </c>
+      <c r="Q73" s="16">
+        <f t="shared" si="50"/>
+        <v>1E+264</v>
+      </c>
+      <c r="R73" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+264</v>
       </c>
     </row>
     <row r="74" spans="5:27" x14ac:dyDescent="0.3">
@@ -8375,11 +8707,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100군</v>
       </c>
       <c r="G74" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+238</v>
       </c>
       <c r="H74" s="16">
@@ -8391,16 +8723,30 @@
         <v>군</v>
       </c>
       <c r="J74" s="15" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+236</v>
       </c>
       <c r="K74" s="21">
-        <f t="shared" ref="K74:K94" si="53">L74*2</f>
+        <f t="shared" ref="K74:K94" si="55">L74*2</f>
         <v>61000</v>
       </c>
       <c r="L74" s="21">
         <f t="shared" si="4"/>
         <v>30500</v>
+      </c>
+      <c r="O74" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P74" s="15">
+        <v>268</v>
+      </c>
+      <c r="Q74" s="16">
+        <f t="shared" si="50"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="R74" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+268</v>
       </c>
     </row>
     <row r="75" spans="5:27" x14ac:dyDescent="0.3">
@@ -8408,11 +8754,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1결</v>
       </c>
       <c r="G75" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+240</v>
       </c>
       <c r="H75" s="16">
@@ -8424,16 +8770,30 @@
         <v>결</v>
       </c>
       <c r="J75" s="15" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+240</v>
       </c>
       <c r="K75" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>62500</v>
       </c>
       <c r="L75" s="21">
-        <f t="shared" ref="L75:L94" si="54">L74+250+QUOTIENT(E75,25)*250</f>
+        <f t="shared" ref="L75:L94" si="56">L74+250+QUOTIENT(E75,25)*250</f>
         <v>31250</v>
+      </c>
+      <c r="O75" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P75" s="15">
+        <v>272</v>
+      </c>
+      <c r="Q75" s="16">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="R75" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+272</v>
       </c>
     </row>
     <row r="76" spans="5:27" x14ac:dyDescent="0.3">
@@ -8441,11 +8801,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="16" t="str">
-        <f t="shared" ref="F76:F80" si="55">H76&amp;I76</f>
+        <f t="shared" ref="F76:F80" si="57">H76&amp;I76</f>
         <v>100결</v>
       </c>
       <c r="G76" s="16">
-        <f t="shared" ref="G76:G80" si="56">H76*J76</f>
+        <f t="shared" ref="G76:G80" si="58">H76*J76</f>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H76" s="16">
@@ -8457,15 +8817,15 @@
         <v>결</v>
       </c>
       <c r="J76" s="15" t="str">
-        <f t="shared" ref="J76:J80" si="57">VLOOKUP(I76,O:R,4,FALSE)</f>
+        <f t="shared" ref="J76:J80" si="59">VLOOKUP(I76,O:R,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K76" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>64000</v>
       </c>
       <c r="L76" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>32000</v>
       </c>
     </row>
@@ -8474,11 +8834,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1맥</v>
       </c>
       <c r="G77" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="H77" s="16">
@@ -8490,15 +8850,15 @@
         <v>맥</v>
       </c>
       <c r="J77" s="15" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+244</v>
       </c>
       <c r="K77" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>65500</v>
       </c>
       <c r="L77" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>32750</v>
       </c>
     </row>
@@ -8507,11 +8867,11 @@
         <v>69</v>
       </c>
       <c r="F78" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>100맥</v>
       </c>
       <c r="G78" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.0000000000000001E+246</v>
       </c>
       <c r="H78" s="16">
@@ -8523,15 +8883,15 @@
         <v>맥</v>
       </c>
       <c r="J78" s="15" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+244</v>
       </c>
       <c r="K78" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>67000</v>
       </c>
       <c r="L78" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>33500</v>
       </c>
     </row>
@@ -8540,11 +8900,11 @@
         <v>70</v>
       </c>
       <c r="F79" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1토</v>
       </c>
       <c r="G79" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+248</v>
       </c>
       <c r="H79" s="16">
@@ -8556,15 +8916,15 @@
         <v>토</v>
       </c>
       <c r="J79" s="15" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+248</v>
       </c>
       <c r="K79" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>68500</v>
       </c>
       <c r="L79" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>34250</v>
       </c>
     </row>
@@ -8573,11 +8933,11 @@
         <v>71</v>
       </c>
       <c r="F80" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>100토</v>
       </c>
       <c r="G80" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.0000000000000001E+250</v>
       </c>
       <c r="H80" s="16">
@@ -8589,15 +8949,15 @@
         <v>토</v>
       </c>
       <c r="J80" s="15" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+248</v>
       </c>
       <c r="K80" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>70000</v>
       </c>
       <c r="L80" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>35000</v>
       </c>
     </row>
@@ -8606,11 +8966,11 @@
         <v>72</v>
       </c>
       <c r="F81" s="16" t="str">
-        <f t="shared" ref="F81:F82" si="58">H81&amp;I81</f>
+        <f t="shared" ref="F81:F82" si="60">H81&amp;I81</f>
         <v>1산</v>
       </c>
       <c r="G81" s="16">
-        <f t="shared" ref="G81:G82" si="59">H81*J81</f>
+        <f t="shared" ref="G81:G82" si="61">H81*J81</f>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="H81" s="16">
@@ -8622,15 +8982,15 @@
         <v>산</v>
       </c>
       <c r="J81" s="15" t="str">
-        <f t="shared" ref="J81:J82" si="60">VLOOKUP(I81,O:R,4,FALSE)</f>
+        <f t="shared" ref="J81:J82" si="62">VLOOKUP(I81,O:R,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K81" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>71500</v>
       </c>
       <c r="L81" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>35750</v>
       </c>
     </row>
@@ -8639,11 +8999,11 @@
         <v>73</v>
       </c>
       <c r="F82" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100산</v>
       </c>
       <c r="G82" s="16">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+254</v>
       </c>
       <c r="H82" s="16">
@@ -8655,15 +9015,15 @@
         <v>산</v>
       </c>
       <c r="J82" s="15" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+252</v>
       </c>
       <c r="K82" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>73000</v>
       </c>
       <c r="L82" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>36500</v>
       </c>
     </row>
@@ -8672,11 +9032,11 @@
         <v>74</v>
       </c>
       <c r="F83" s="16" t="str">
-        <f t="shared" ref="F83:F86" si="61">H83&amp;I83</f>
+        <f t="shared" ref="F83:F86" si="63">H83&amp;I83</f>
         <v>1강</v>
       </c>
       <c r="G83" s="16">
-        <f t="shared" ref="G83:G86" si="62">H83*J83</f>
+        <f t="shared" ref="G83:G86" si="64">H83*J83</f>
         <v>1E+256</v>
       </c>
       <c r="H83" s="16">
@@ -8688,15 +9048,15 @@
         <v>강</v>
       </c>
       <c r="J83" s="15" t="str">
-        <f t="shared" ref="J83:J86" si="63">VLOOKUP(I83,O:R,4,FALSE)</f>
+        <f t="shared" ref="J83:J86" si="65">VLOOKUP(I83,O:R,4,FALSE)</f>
         <v>1E+256</v>
       </c>
       <c r="K83" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>74500</v>
       </c>
       <c r="L83" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>37250</v>
       </c>
     </row>
@@ -8705,11 +9065,11 @@
         <v>75</v>
       </c>
       <c r="F84" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100강</v>
       </c>
       <c r="G84" s="16">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000001E+258</v>
       </c>
       <c r="H84" s="16">
@@ -8721,15 +9081,15 @@
         <v>강</v>
       </c>
       <c r="J84" s="15" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+256</v>
       </c>
       <c r="K84" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>76500</v>
       </c>
       <c r="L84" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>38250</v>
       </c>
     </row>
@@ -8738,31 +9098,31 @@
         <v>76</v>
       </c>
       <c r="F85" s="16" t="str">
-        <f t="shared" si="61"/>
-        <v>10</v>
-      </c>
-      <c r="G85" s="16" t="e">
-        <f t="shared" si="62"/>
-        <v>#N/A</v>
+        <f t="shared" si="63"/>
+        <v>1환</v>
+      </c>
+      <c r="G85" s="16">
+        <f t="shared" si="64"/>
+        <v>1.0000000000000001E+260</v>
       </c>
       <c r="H85" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I85" s="15" cm="1">
+      <c r="I85" s="15" t="str" cm="1">
         <f t="array" ref="I85">IF(AND(H84&gt;=100,H85&lt;2),INDEX(O:O,MATCH(I84,O:O,0)+1,0),I84)</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="15" t="e">
-        <f t="shared" si="63"/>
-        <v>#N/A</v>
+        <v>환</v>
+      </c>
+      <c r="J85" s="15" t="str">
+        <f t="shared" si="65"/>
+        <v>1E+260</v>
       </c>
       <c r="K85" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>78500</v>
       </c>
       <c r="L85" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>39250</v>
       </c>
     </row>
@@ -8771,31 +9131,31 @@
         <v>77</v>
       </c>
       <c r="F86" s="16" t="str">
-        <f t="shared" si="61"/>
-        <v>1000</v>
-      </c>
-      <c r="G86" s="16" t="e">
-        <f t="shared" si="62"/>
-        <v>#N/A</v>
+        <f t="shared" si="63"/>
+        <v>100환</v>
+      </c>
+      <c r="G86" s="16">
+        <f t="shared" si="64"/>
+        <v>1E+262</v>
       </c>
       <c r="H86" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I86" s="15" cm="1">
+      <c r="I86" s="15" t="str" cm="1">
         <f t="array" ref="I86">IF(AND(H85&gt;=100,H86&lt;2),INDEX(O:O,MATCH(I85,O:O,0)+1,0),I85)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="15" t="e">
-        <f t="shared" si="63"/>
-        <v>#N/A</v>
+        <v>환</v>
+      </c>
+      <c r="J86" s="15" t="str">
+        <f t="shared" si="65"/>
+        <v>1E+260</v>
       </c>
       <c r="K86" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>80500</v>
       </c>
       <c r="L86" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>40250</v>
       </c>
     </row>
@@ -8803,32 +9163,32 @@
       <c r="E87" s="15">
         <v>78</v>
       </c>
-      <c r="F87" s="16" t="e">
-        <f t="shared" ref="F87:F90" si="64">H87&amp;I87</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G87" s="16" t="e">
-        <f t="shared" ref="G87:G90" si="65">H87*J87</f>
-        <v>#N/A</v>
+      <c r="F87" s="16" t="str">
+        <f t="shared" ref="F87:F90" si="66">H87&amp;I87</f>
+        <v>1종</v>
+      </c>
+      <c r="G87" s="16">
+        <f t="shared" ref="G87:G90" si="67">H87*J87</f>
+        <v>1E+264</v>
       </c>
       <c r="H87" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I87" s="15" t="e" cm="1">
+      <c r="I87" s="15" t="str" cm="1">
         <f t="array" ref="I87">IF(AND(H86&gt;=100,H87&lt;2),INDEX(O:O,MATCH(I86,O:O,0)+1,0),I86)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J87" s="15" t="e">
-        <f t="shared" ref="J87:J90" si="66">VLOOKUP(I87,O:R,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>종</v>
+      </c>
+      <c r="J87" s="15" t="str">
+        <f t="shared" ref="J87:J90" si="68">VLOOKUP(I87,O:R,4,FALSE)</f>
+        <v>1E+264</v>
       </c>
       <c r="K87" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>82500</v>
       </c>
       <c r="L87" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>41250</v>
       </c>
     </row>
@@ -8836,32 +9196,32 @@
       <c r="E88" s="15">
         <v>79</v>
       </c>
-      <c r="F88" s="16" t="e">
-        <f t="shared" si="64"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" s="16" t="e">
-        <f t="shared" si="65"/>
-        <v>#N/A</v>
+      <c r="F88" s="16" t="str">
+        <f t="shared" si="66"/>
+        <v>100종</v>
+      </c>
+      <c r="G88" s="16">
+        <f t="shared" si="67"/>
+        <v>1E+266</v>
       </c>
       <c r="H88" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I88" s="15" t="e" cm="1">
+      <c r="I88" s="15" t="str" cm="1">
         <f t="array" ref="I88">IF(AND(H87&gt;=100,H88&lt;2),INDEX(O:O,MATCH(I87,O:O,0)+1,0),I87)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J88" s="15" t="e">
-        <f t="shared" si="66"/>
-        <v>#N/A</v>
+        <v>종</v>
+      </c>
+      <c r="J88" s="15" t="str">
+        <f t="shared" si="68"/>
+        <v>1E+264</v>
       </c>
       <c r="K88" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>84500</v>
       </c>
       <c r="L88" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>42250</v>
       </c>
     </row>
@@ -8869,32 +9229,32 @@
       <c r="E89" s="15">
         <v>80</v>
       </c>
-      <c r="F89" s="16" t="e">
-        <f t="shared" si="64"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G89" s="16" t="e">
-        <f t="shared" si="65"/>
-        <v>#N/A</v>
+      <c r="F89" s="16" t="str">
+        <f t="shared" si="66"/>
+        <v>1덕</v>
+      </c>
+      <c r="G89" s="16">
+        <f t="shared" si="67"/>
+        <v>9.9999999999999997E+267</v>
       </c>
       <c r="H89" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I89" s="15" t="e" cm="1">
+      <c r="I89" s="15" t="str" cm="1">
         <f t="array" ref="I89">IF(AND(H88&gt;=100,H89&lt;2),INDEX(O:O,MATCH(I88,O:O,0)+1,0),I88)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J89" s="15" t="e">
-        <f t="shared" si="66"/>
-        <v>#N/A</v>
+        <v>덕</v>
+      </c>
+      <c r="J89" s="15" t="str">
+        <f t="shared" si="68"/>
+        <v>1E+268</v>
       </c>
       <c r="K89" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>86500</v>
       </c>
       <c r="L89" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>43250</v>
       </c>
     </row>
@@ -8902,32 +9262,32 @@
       <c r="E90" s="15">
         <v>81</v>
       </c>
-      <c r="F90" s="16" t="e">
-        <f t="shared" si="64"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" s="16" t="e">
-        <f t="shared" si="65"/>
-        <v>#N/A</v>
+      <c r="F90" s="16" t="str">
+        <f t="shared" si="66"/>
+        <v>100덕</v>
+      </c>
+      <c r="G90" s="16">
+        <f t="shared" si="67"/>
+        <v>9.9999999999999993E+269</v>
       </c>
       <c r="H90" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I90" s="15" t="e" cm="1">
+      <c r="I90" s="15" t="str" cm="1">
         <f t="array" ref="I90">IF(AND(H89&gt;=100,H90&lt;2),INDEX(O:O,MATCH(I89,O:O,0)+1,0),I89)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J90" s="15" t="e">
-        <f t="shared" si="66"/>
-        <v>#N/A</v>
+        <v>덕</v>
+      </c>
+      <c r="J90" s="15" t="str">
+        <f t="shared" si="68"/>
+        <v>1E+268</v>
       </c>
       <c r="K90" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>88500</v>
       </c>
       <c r="L90" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>44250</v>
       </c>
     </row>
@@ -8935,32 +9295,32 @@
       <c r="E91" s="15">
         <v>82</v>
       </c>
-      <c r="F91" s="16" t="e">
-        <f t="shared" ref="F91:F94" si="67">H91&amp;I91</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" s="16" t="e">
-        <f t="shared" ref="G91:G94" si="68">H91*J91</f>
-        <v>#N/A</v>
+      <c r="F91" s="16" t="str">
+        <f t="shared" ref="F91:F94" si="69">H91&amp;I91</f>
+        <v>1건</v>
+      </c>
+      <c r="G91" s="16">
+        <f t="shared" ref="G91:G94" si="70">H91*J91</f>
+        <v>1.0000000000000001E+272</v>
       </c>
       <c r="H91" s="16">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I91" s="15" t="e" cm="1">
+      <c r="I91" s="15" t="str" cm="1">
         <f t="array" ref="I91">IF(AND(H90&gt;=100,H91&lt;2),INDEX(O:O,MATCH(I90,O:O,0)+1,0),I90)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" s="15" t="e">
-        <f t="shared" ref="J91:J94" si="69">VLOOKUP(I91,O:R,4,FALSE)</f>
-        <v>#N/A</v>
+        <v>건</v>
+      </c>
+      <c r="J91" s="15" t="str">
+        <f t="shared" ref="J91:J94" si="71">VLOOKUP(I91,O:R,4,FALSE)</f>
+        <v>1E+272</v>
       </c>
       <c r="K91" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>90500</v>
       </c>
       <c r="L91" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>45250</v>
       </c>
     </row>
@@ -8968,32 +9328,32 @@
       <c r="E92" s="15">
         <v>83</v>
       </c>
-      <c r="F92" s="16" t="e">
-        <f t="shared" si="67"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" s="16" t="e">
-        <f t="shared" si="68"/>
-        <v>#N/A</v>
+      <c r="F92" s="16" t="str">
+        <f t="shared" si="69"/>
+        <v>100건</v>
+      </c>
+      <c r="G92" s="16">
+        <f t="shared" si="70"/>
+        <v>1.0000000000000001E+274</v>
       </c>
       <c r="H92" s="16">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="I92" s="15" t="e" cm="1">
+      <c r="I92" s="15" t="str" cm="1">
         <f t="array" ref="I92">IF(AND(H91&gt;=100,H92&lt;2),INDEX(O:O,MATCH(I91,O:O,0)+1,0),I91)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J92" s="15" t="e">
-        <f t="shared" si="69"/>
-        <v>#N/A</v>
+        <v>건</v>
+      </c>
+      <c r="J92" s="15" t="str">
+        <f t="shared" si="71"/>
+        <v>1E+272</v>
       </c>
       <c r="K92" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>92500</v>
       </c>
       <c r="L92" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>46250</v>
       </c>
     </row>
@@ -9001,32 +9361,32 @@
       <c r="E93" s="15">
         <v>84</v>
       </c>
-      <c r="F93" s="16" t="e">
-        <f t="shared" si="67"/>
+      <c r="F93" s="16" t="str">
+        <f t="shared" si="69"/>
+        <v>10</v>
+      </c>
+      <c r="G93" s="16" t="e">
+        <f t="shared" si="70"/>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="16" t="e">
-        <f t="shared" si="68"/>
+      <c r="H93" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I93" s="15" cm="1">
+        <f t="array" ref="I93">IF(AND(H92&gt;=100,H93&lt;2),INDEX(O:O,MATCH(I92,O:O,0)+1,0),I92)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="15" t="e">
+        <f t="shared" si="71"/>
         <v>#N/A</v>
       </c>
-      <c r="H93" s="16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I93" s="15" t="e" cm="1">
-        <f t="array" ref="I93">IF(AND(H92&gt;=100,H93&lt;2),INDEX(O:O,MATCH(I92,O:O,0)+1,0),I92)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J93" s="15" t="e">
-        <f t="shared" si="69"/>
-        <v>#N/A</v>
-      </c>
       <c r="K93" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>94500</v>
       </c>
       <c r="L93" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>47250</v>
       </c>
     </row>
@@ -9034,32 +9394,32 @@
       <c r="E94" s="15">
         <v>85</v>
       </c>
-      <c r="F94" s="16" t="e">
-        <f t="shared" si="67"/>
+      <c r="F94" s="16" t="str">
+        <f t="shared" si="69"/>
+        <v>1000</v>
+      </c>
+      <c r="G94" s="16" t="e">
+        <f t="shared" si="70"/>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="16" t="e">
-        <f t="shared" si="68"/>
+      <c r="H94" s="16">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I94" s="15" cm="1">
+        <f t="array" ref="I94">IF(AND(H93&gt;=100,H94&lt;2),INDEX(O:O,MATCH(I93,O:O,0)+1,0),I93)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="15" t="e">
+        <f t="shared" si="71"/>
         <v>#N/A</v>
       </c>
-      <c r="H94" s="16">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I94" s="15" t="e" cm="1">
-        <f t="array" ref="I94">IF(AND(H93&gt;=100,H94&lt;2),INDEX(O:O,MATCH(I93,O:O,0)+1,0),I93)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J94" s="15" t="e">
-        <f t="shared" si="69"/>
-        <v>#N/A</v>
-      </c>
       <c r="K94" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>96500</v>
       </c>
       <c r="L94" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>48250</v>
       </c>
     </row>
